--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>310250.5801830594</v>
+        <v>319127.7612150436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>348740.4179588314</v>
+        <v>407923.1237157632</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>362101.8909560764</v>
+        <v>444829.1452842072</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372226.9045582308</v>
+        <v>417383.0736890489</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360657.8237181113</v>
+        <v>426218.3888649797</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359049.3276460781</v>
+        <v>435020.8489706562</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355592.2598188128</v>
+        <v>422944.1084693313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351332.9755208343</v>
+        <v>416750.1430616227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>358106.9160107442</v>
+        <v>429587.6432251492</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370441.2717249318</v>
+        <v>423032.4817406402</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362722.4719614597</v>
+        <v>423682.8771698318</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352643.5029582098</v>
+        <v>411804.311990978</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>340607.9063840089</v>
+        <v>409311.7727195981</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346444.8560634243</v>
+        <v>419399.8145250575</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>347124.7703399425</v>
+        <v>411714.7235446033</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>380620.6583691176</v>
+        <v>447315.9940764834</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>386280.580539759</v>
+        <v>411319.6068021524</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>384986.197260263</v>
+        <v>419087.579656352</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>395927.7509319683</v>
+        <v>420785.446881215</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>401042.7659938492</v>
+        <v>416920.6541920241</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>397473.3568728381</v>
+        <v>411591.3711149813</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>404676.623021723</v>
+        <v>423306.3952152513</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>387072.846386941</v>
+        <v>442011.8993651294</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>390910.8588542857</v>
+        <v>462211.8308240741</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>366107.7790855455</v>
+        <v>477469.0022887441</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>365705.3555085469</v>
+        <v>486072.8145844418</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>373480.4150551414</v>
+        <v>487970.436440209</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>372346.921318159</v>
+        <v>488404.4295252467</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>362284.8276557175</v>
+        <v>494068.7765547787</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>364248.281463936</v>
+        <v>468950.9256409119</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>357567.8810651587</v>
+        <v>472034.7767531177</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>349351.8428985364</v>
+        <v>471388.404483914</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>341677.0603303221</v>
+        <v>482415.0027539348</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>333348.2706428144</v>
+        <v>516857.6225423422</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>332000.1369985405</v>
+        <v>497990.9647336342</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>325380.1721612168</v>
+        <v>474103.5324709354</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>350507.7865483428</v>
+        <v>491956.0925300762</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>433825.0417257111</v>
+        <v>472192.9624237628</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>466246.344791099</v>
+        <v>477088.900954419</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>533464.7830724693</v>
+        <v>488108.1908838174</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>552127.8861015179</v>
+        <v>495342.3040095557</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>564612.8208780668</v>
+        <v>497925.5194336314</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>549971.2246901599</v>
+        <v>509450.9679911505</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>519739.1451683533</v>
+        <v>489144.6105931238</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>494739.3027787388</v>
+        <v>501126.191162568</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>465903.4054289527</v>
+        <v>511429.4799986091</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>452403.1687422825</v>
+        <v>537445.6533517728</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>452878.365065649</v>
+        <v>555392.9699812495</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>460808.3911302742</v>
+        <v>547787.7222056526</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>483391.5933470846</v>
+        <v>541503.56044815</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>497236.0118233293</v>
+        <v>544626.0860851303</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>507222.0890595487</v>
+        <v>540289.6341382238</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>506419.6087833286</v>
+        <v>534441.0804417856</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>485898.2884081413</v>
+        <v>548691.6064202935</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>469883.4192992751</v>
+        <v>554781.4725343776</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>459179.6035078535</v>
+        <v>555105.7120053638</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>442044.1299572256</v>
+        <v>551720.8390484934</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>429958.1955592694</v>
+        <v>556966.4570146055</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>398669.4840474589</v>
+        <v>564355.0479162491</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>395700.6312106549</v>
+        <v>553143.9675939034</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>334236.4651094089</v>
+        <v>496280.8832530046</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>318831.648696376</v>
+        <v>469389.4350251047</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>327186.3002516968</v>
+        <v>450143.8248528108</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>338675.2663626583</v>
+        <v>474281.5872778777</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>332089.2088778575</v>
+        <v>482873.69334576</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>313013.7341653005</v>
+        <v>485823.9454716733</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>304617.5364133405</v>
+        <v>474734.6638332624</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>328456.9257109104</v>
+        <v>471694.6762171427</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>326274.2572739391</v>
+        <v>464406.8119483095</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>338802.9621464008</v>
+        <v>468656.4655228067</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>339449.4034827178</v>
+        <v>455122.4223192959</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>353371.4885745288</v>
+        <v>450200.6175446135</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>360519.137849525</v>
+        <v>452144.1189732242</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>358820.9216924441</v>
+        <v>489514.493845573</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>368240.332495596</v>
+        <v>479830.2166311192</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>360054.1569572492</v>
+        <v>481943.2543898151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>359958.4770180928</v>
+        <v>480961.0950783207</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>355540.6920016436</v>
+        <v>477285.6635029134</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>345717.5328356926</v>
+        <v>486858.156930979</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>362577.2560285597</v>
+        <v>478954.312180599</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>414328.158336557</v>
+        <v>469602.2342445737</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>409248.1282877436</v>
+        <v>487742.4057587976</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>403730.3278126884</v>
+        <v>496187.0826809481</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>347907.5803295705</v>
+        <v>489763.4073052172</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>343177.6877117097</v>
+        <v>488671.1757946946</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>353290.2701447189</v>
+        <v>490187.5908532909</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>338066.7589763494</v>
+        <v>473803.1834952687</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>325491.8831970925</v>
+        <v>502822.4190383138</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>325689.5647837647</v>
+        <v>496607.7973708308</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>330610.2964505734</v>
+        <v>493195.7168689524</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>295386.7864886168</v>
+        <v>448878.7157469878</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>293529.6233729527</v>
+        <v>384933.7697387708</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>298335.8122588892</v>
+        <v>398105.179358767</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>297021.5104531039</v>
+        <v>423792.8827702872</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>293436.1366415395</v>
+        <v>448475.9501731991</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>282174.5016440341</v>
+        <v>470846.8856776336</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>301440.9244269269</v>
+        <v>465612.0929752805</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>315656.4717987273</v>
+        <v>448373.5746980056</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>357088.2527016182</v>
+        <v>443080.8063062991</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>412817.7140368319</v>
+        <v>460790.0439612299</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>486678.785581712</v>
+        <v>457610.3707347692</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>507997.8425416949</v>
+        <v>506480.7580602409</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>511261.4314354279</v>
+        <v>522069.2273253832</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>485681.5150012132</v>
+        <v>559446.9664441994</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>482950.1289210781</v>
+        <v>566503.9744290954</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>431902.3839258014</v>
+        <v>577692.2018763986</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>440516.5533878657</v>
+        <v>575162.7922728439</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>438786.5296302224</v>
+        <v>569149.8643780715</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>423488.0974229874</v>
+        <v>567059.8969376372</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>421567.321669565</v>
+        <v>569462.8972955805</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>418701.1948074104</v>
+        <v>571853.3407661024</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>398739.5942232009</v>
+        <v>576676.1138560802</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>403470.5315586352</v>
+        <v>572549.1577834642</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>482128.9647308178</v>
+        <v>567095.4061176083</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>547455.1085123033</v>
+        <v>567413.6304987305</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>553157.5683177827</v>
+        <v>565667.0682938313</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>547813.0193207349</v>
+        <v>566720.5720601791</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>500402.0189263186</v>
+        <v>572198.5336025284</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>468062.369276832</v>
+        <v>577152.8897484773</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>439334.5237098219</v>
+        <v>572071.9967326677</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>219430.0906777535</v>
+        <v>512439.2777390649</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>211338.0213838814</v>
+        <v>400559.6817215512</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>206458.717462132</v>
+        <v>432852.0401192799</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>203939.1159144432</v>
+        <v>439695.9031391835</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>198964.4604738668</v>
+        <v>496854.2617096721</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>196706.9719708959</v>
+        <v>490266.3145667556</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>196501.1109338614</v>
+        <v>462059.4704553325</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>193818.9247913307</v>
+        <v>403883.9644745545</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>190701.3991264755</v>
+        <v>383905.4122739949</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>192136.4366121501</v>
+        <v>378932.1004648656</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>192952.4496326127</v>
+        <v>376874.987305248</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>189818.9626247345</v>
+        <v>357190.0375552865</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>206127.9886935645</v>
+        <v>353866.2087371631</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>236048.1260835181</v>
+        <v>324889.0207475944</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>261691.0458394427</v>
+        <v>323656.8268383572</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>290688.9933865695</v>
+        <v>320805.7329846878</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>297888.3546019564</v>
+        <v>356329.3868921447</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>312621.3851411988</v>
+        <v>385491.0402533184</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>315775.6117142166</v>
+        <v>441602.9904884337</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>304527.776560083</v>
+        <v>470423.6231068134</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>291007.5300926447</v>
+        <v>541194.5840252811</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>489571.954091855</v>
+        <v>571171.2736696859</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>437249.7773446078</v>
+        <v>586700.708214107</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>501043.7203780136</v>
+        <v>587450.8689282715</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>414732.8693630101</v>
+        <v>587415.5389283985</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>503866.1548750165</v>
+        <v>584398.0708063674</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>456624.1471014113</v>
+        <v>583515.4287664458</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>531869.6424304394</v>
+        <v>575295.0239938719</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>459880.9991080383</v>
+        <v>577377.131362703</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>535562.3456695441</v>
+        <v>571405.4879045498</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>451803.0135089085</v>
+        <v>567522.4884770199</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>532392.1285638703</v>
+        <v>573410.5171876753</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>473900.2203669782</v>
+        <v>566108.2699825295</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>528947.461646111</v>
+        <v>551075.0058699534</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>533636.434599836</v>
+        <v>567017.532836194</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>577254.4841767227</v>
+        <v>564227.7959931936</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>559745.8273506317</v>
+        <v>572697.6928939194</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>576947.7204109487</v>
+        <v>570414.3580446874</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>574083.2005019269</v>
+        <v>591941.7095604966</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>590201.0106365088</v>
+        <v>567880.1961821117</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>581676.665086152</v>
+        <v>585163.6254290293</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>585840.7948796091</v>
+        <v>572947.9631384311</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>567535.6283691878</v>
+        <v>572219.1439184654</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>567717.4083952464</v>
+        <v>561505.5522403752</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>535665.0482377879</v>
+        <v>573608.0228557591</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>549370.7094624803</v>
+        <v>564529.4945600017</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>520933.2414061537</v>
+        <v>580781.9524310527</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>548628.8505856402</v>
+        <v>558581.1105996631</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>509598.4945959957</v>
+        <v>573921.7544211674</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>531544.7314267077</v>
+        <v>549476.6671245311</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>444609.8298332497</v>
+        <v>553460.3900953704</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>449007.6008213228</v>
+        <v>503194.7384680537</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>397666.2226773774</v>
+        <v>533921.0463013675</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>434310.8108597838</v>
+        <v>511257.5389023679</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>414629.9546617785</v>
+        <v>533747.8420018844</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>462652.1241572638</v>
+        <v>523667.4456332475</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>435770.1003996483</v>
+        <v>515146.81945811</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>447230.0164662254</v>
+        <v>500728.293617185</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>449687.6381194072</v>
+        <v>570153.2954947321</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>463583.6126547413</v>
+        <v>461891.2248447964</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>468441.3530082148</v>
+        <v>493962.6785186318</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>448086.1353613354</v>
+        <v>567766.1097608255</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>471944.1793267308</v>
+        <v>554960.8699949979</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>524376.6546546814</v>
+        <v>539497.4597132739</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>537255.185167786</v>
+        <v>506891.4862634831</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>546326.2662976456</v>
+        <v>493395.5924804871</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>514220.5751114318</v>
+        <v>458050.5967998782</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>454325.9633621798</v>
+        <v>442466.6322054112</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>463456.3936454739</v>
+        <v>419429.7063025569</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>430649.2667001863</v>
+        <v>443849.5509135121</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>454641.1872154386</v>
+        <v>471524.0548268758</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>444173.3821162088</v>
+        <v>470885.3398642468</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>421915.9114673843</v>
+        <v>466542.5613236724</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>423239.0719159834</v>
+        <v>470279.4802504231</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>433301.9085355104</v>
+        <v>483896.0906188486</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>426127.6443327754</v>
+        <v>471630.6215376256</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>411712.1768316355</v>
+        <v>438120.528276113</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>415338.6890072928</v>
+        <v>415260.4841383304</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>380798.2665228886</v>
+        <v>432937.9784386673</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>421035.8304521789</v>
+        <v>408488.91713808</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>388318.7856389238</v>
+        <v>406880.0379901055</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>378361.2234051114</v>
+        <v>386258.3778441423</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>345718.1849508872</v>
+        <v>429755.5590458837</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>353396.8353900723</v>
+        <v>430294.3931144591</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>366749.7788415341</v>
+        <v>462289.1919670315</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>370294.6984284564</v>
+        <v>461817.7605582762</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>361732.5399344681</v>
+        <v>467294.5223433435</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>384286.9178326744</v>
+        <v>392126.1849771676</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>380593.7931055468</v>
+        <v>406635.9879487177</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>370073.3300711614</v>
+        <v>401918.0057891703</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>377425.6124093998</v>
+        <v>416442.7931118477</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>390441.8984080082</v>
+        <v>398228.5933605884</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>395229.5547659784</v>
+        <v>407451.3034501018</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>330846.0298784833</v>
+        <v>332157.8893287196</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>328603.9965631657</v>
+        <v>333957.2668007467</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>281473.7903184495</v>
+        <v>318796.5495882451</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>312942.899096706</v>
+        <v>319985.8586725827</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>310385.3462011335</v>
+        <v>321019.8845585637</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>278505.5405566794</v>
+        <v>325597.4921530078</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>287873.2206329391</v>
+        <v>311333.3335996669</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>294521.3309068182</v>
+        <v>293054.9123785715</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>293033.1525437867</v>
+        <v>309450.6885764055</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>288198.7392349768</v>
+        <v>286236.7252104046</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>293585.5505234211</v>
+        <v>277361.2144185666</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>275718.8755423542</v>
+        <v>238436.7985526053</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>282559.2840506661</v>
+        <v>262312.4008197988</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>249052.553783096</v>
+        <v>251620.6706876197</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>289116.5391508022</v>
+        <v>239438.0062954518</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>281946.2900978968</v>
+        <v>230620.5808992727</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>263014.8760314427</v>
+        <v>235548.8899734091</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>262161.2021185391</v>
+        <v>251698.9676767761</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>262832.5919645248</v>
+        <v>242734.1158340575</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>259486.2596062172</v>
+        <v>246503.9599377772</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>261095.7360979993</v>
+        <v>241359.0515877595</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>263884.9162907366</v>
+        <v>220603.4204701345</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>256986.2627981682</v>
+        <v>232130.1324347171</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>251680.754135036</v>
+        <v>236082.6717765036</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>246950.6516014381</v>
+        <v>258865.4797088649</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>267275.0360296378</v>
+        <v>250610.759069803</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>265738.3592970987</v>
+        <v>239226.0594181224</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>263409.909817922</v>
+        <v>219089.6172495628</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>268098.3467937384</v>
+        <v>219356.6129707854</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>341370.5862253428</v>
+        <v>281134.3940038551</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>262466.2240947489</v>
+        <v>219081.9774770926</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>221229.1986714688</v>
+        <v>201361.250386097</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>184038.7133577771</v>
+        <v>225210.1885898156</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>176954.1936739178</v>
+        <v>225101.1001839376</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>177486.4590205743</v>
+        <v>205189.0092920367</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>155007.7478556819</v>
+        <v>212868.2768081475</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>167284.663532879</v>
+        <v>196136.283870755</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>170416.8238401989</v>
+        <v>175221.7778607337</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>163578.4771035232</v>
+        <v>204656.9988278987</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>173787.6097547157</v>
+        <v>212300.2286336069</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>163474.5988678869</v>
+        <v>221928.9919152093</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>150394.9206114918</v>
+        <v>203900.3219013689</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>164319.932837506</v>
+        <v>207858.9305239115</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>172044.0417559475</v>
+        <v>206003.1678570844</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>177609.3014200423</v>
+        <v>214059.807702109</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>184056.5759956782</v>
+        <v>204696.0676649576</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>164039.8955048006</v>
+        <v>212476.5323391781</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>168807.2590245332</v>
+        <v>209999.4689336457</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>155580.5685157593</v>
+        <v>225631.8526623937</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>158427.3894162026</v>
+        <v>233372.3729528917</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>176358.2545756975</v>
+        <v>208417.1636338395</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>174313.791071381</v>
+        <v>233077.9342537357</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>175051.8292771941</v>
+        <v>211947.5444201634</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>172258.1549505117</v>
+        <v>213300.6659122305</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>170628.50255536</v>
+        <v>225133.6362491024</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>169242.6772633142</v>
+        <v>215363.7093120218</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>170044.3819016279</v>
+        <v>224868.6195866315</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>161113.3937785231</v>
+        <v>224818.902889092</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>159500.0872112958</v>
+        <v>214966.2550855936</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>168912.2175710811</v>
+        <v>231264.5759215389</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>195108.1555095596</v>
+        <v>294135.8576149871</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>208476.3633417607</v>
+        <v>305474.9293826435</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>207633.3064867197</v>
+        <v>285472.5784052011</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>214530.2612390471</v>
+        <v>258472.6090582873</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>225063.6937431584</v>
+        <v>277378.7672987228</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>226196.6719024724</v>
+        <v>257559.3855174683</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>211797.7488861564</v>
+        <v>236519.9990792434</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>215924.8289435669</v>
+        <v>253759.3804728138</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>211367.5289023735</v>
+        <v>253074.3911509372</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>221789.07112643</v>
+        <v>249621.6246128291</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>216503.9429524285</v>
+        <v>247315.2115745268</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>209055.1680726411</v>
+        <v>255957.659311566</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>217613.5802349544</v>
+        <v>233341.9852365083</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>205330.1054282651</v>
+        <v>244693.644137406</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>215108.1706789782</v>
+        <v>238582.0569527847</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>213213.8400324183</v>
+        <v>238086.1445294232</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>208461.9391263134</v>
+        <v>244576.3017387454</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>205318.3531070421</v>
+        <v>254318.9604054025</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>221605.8447904596</v>
+        <v>259053.4765272386</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>222314.8451959475</v>
+        <v>258797.4618058254</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>209154.1425213728</v>
+        <v>259957.1410343067</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>207991.8197155087</v>
+        <v>289178.7244043024</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>208696.1832609359</v>
+        <v>288015.1712069814</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>212074.6821167026</v>
+        <v>264361.9648545665</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>226418.4339577743</v>
+        <v>267558.3058391036</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>204713.7000065183</v>
+        <v>262384.3744022381</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>207564.1648914414</v>
+        <v>260554.4779896286</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>212817.8704015932</v>
+        <v>253264.0515650674</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>212910.9886979731</v>
+        <v>263919.5254554045</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>223690.8761316978</v>
+        <v>266431.7118272055</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>224964.6767946655</v>
+        <v>253536.3941424207</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>193762.0059135372</v>
+        <v>240492.9342554501</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>176058.3345136215</v>
+        <v>234021.3747284483</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>191211.4664642391</v>
+        <v>230876.4082235451</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>191242.1396533913</v>
+        <v>235633.5087804211</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>182073.9909804123</v>
+        <v>241200.6762791352</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>184663.9996550241</v>
+        <v>235155.9631001826</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>189868.8236607046</v>
+        <v>244597.49927033</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>179760.5951556788</v>
+        <v>234657.4153292172</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>182760.463921577</v>
+        <v>222828.6668875963</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>188882.5094642176</v>
+        <v>242276.2789006316</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>184974.9585335519</v>
+        <v>229640.1214211884</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>191315.168051244</v>
+        <v>210803.7434258104</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>193337.8548848791</v>
+        <v>211803.8165613727</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>195854.1248843161</v>
+        <v>213055.3759899826</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>191179.5102503254</v>
+        <v>215168.9539631916</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>198592.7767315468</v>
+        <v>211686.6205022826</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>200747.6994362344</v>
+        <v>199330.7537349711</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>206682.66360334</v>
+        <v>211344.2635441071</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>208062.9338029693</v>
+        <v>205456.6497338963</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>226114.9102055871</v>
+        <v>194192.0458970268</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>217397.7640759772</v>
+        <v>216017.9309262249</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>215210.0412233454</v>
+        <v>195780.837880183</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>205649.2465889014</v>
+        <v>201486.6996408697</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>203884.1033358048</v>
+        <v>206833.7103392464</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>200780.5569723427</v>
+        <v>226549.3231013461</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>209565.6075178152</v>
+        <v>244287.3569701026</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>205162.951420255</v>
+        <v>246579.9234703324</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>203853.6491708878</v>
+        <v>252030.5845489396</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>210906.9779752472</v>
+        <v>231845.0157379165</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>215450.8142641712</v>
+        <v>245346.7291196583</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>217738.4132543228</v>
+        <v>233906.9838761749</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>250599.3919833623</v>
+        <v>294153.608832023</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>250331.8069206651</v>
+        <v>291679.8538104797</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>239393.2251077416</v>
+        <v>303293.4161656064</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>245565.3133564605</v>
+        <v>290634.2890403623</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>242608.3540369754</v>
+        <v>290239.8116713933</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>248471.0060688662</v>
+        <v>285938.2856843531</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>243589.9937095077</v>
+        <v>297652.5015858956</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>258396.8953381912</v>
+        <v>310351.1794742286</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>269218.5436162422</v>
+        <v>311337.0957242498</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>306010.7813965796</v>
+        <v>312481.1498107564</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>292334.0268453028</v>
+        <v>294353.6471699736</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>282166.3273106756</v>
+        <v>290332.1691075522</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>280743.1459920824</v>
+        <v>293668.6493841379</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>266864.9954107243</v>
+        <v>302904.9457192809</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>266229.0111374439</v>
+        <v>307317.0438163134</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>245866.1480163881</v>
+        <v>306220.1415428834</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>249498.9420043905</v>
+        <v>304620.19614176</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>240125.7046682499</v>
+        <v>301371.5266016509</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>238843.5619021567</v>
+        <v>300578.2224150291</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>232547.9908392723</v>
+        <v>312605.7441953205</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>235638.8897897759</v>
+        <v>310125.5804452934</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>233736.9733412471</v>
+        <v>321025.6448610386</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>230844.237598442</v>
+        <v>316773.6383668908</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>229714.7704028522</v>
+        <v>323240.0002644577</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>249695.7940265788</v>
+        <v>321073.3592810432</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>285662.5193099275</v>
+        <v>320029.7585723897</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>291327.239615139</v>
+        <v>319719.9246310501</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>307627.3455826262</v>
+        <v>317779.7581838384</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>334625.4805538213</v>
+        <v>310227.798219003</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>357020.6611465152</v>
+        <v>305496.0272917216</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>336754.6734642233</v>
+        <v>308133.6498492431</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>329446.3300124419</v>
+        <v>367587.6193290227</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>325719.9445976299</v>
+        <v>373854.5715716304</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>320600.208155792</v>
+        <v>363114.0372023996</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>302271.2099365518</v>
+        <v>360918.5567630374</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>303667.0815229818</v>
+        <v>359496.3611657466</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>311695.6854843527</v>
+        <v>341470.6991615209</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>327278.8011203884</v>
+        <v>347558.9775194768</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>337743.4182876841</v>
+        <v>355410.8022602459</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>348833.3707849598</v>
+        <v>373654.0606480595</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>354932.8551915933</v>
+        <v>366688.403043533</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>369362.4883376544</v>
+        <v>365350.2724965502</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>406358.5877171031</v>
+        <v>391819.0608396665</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>402091.6309403017</v>
+        <v>426381.3021627486</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>381686.33146576</v>
+        <v>429475.8053829101</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>380914.0827984889</v>
+        <v>427726.9353597952</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>375433.5560002524</v>
+        <v>429276.7040781674</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>360957.594533315</v>
+        <v>416906.1715755779</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>351874.724341242</v>
+        <v>419068.1947613599</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>346882.2428663016</v>
+        <v>438286.6162083846</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>371790.6328057266</v>
+        <v>446900.0107920859</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>379159.551857808</v>
+        <v>435689.4913901616</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>382257.0875073732</v>
+        <v>456389.9212591133</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>418776.0271193833</v>
+        <v>494715.8324749041</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>451084.9699123671</v>
+        <v>529347.1360036904</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>478112.0872673645</v>
+        <v>517575.6946845917</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>460131.8912349347</v>
+        <v>509410.6150019448</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>462336.8324453412</v>
+        <v>516830.7063061996</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>446229.2928455017</v>
+        <v>482206.2153005589</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>428342.9201469761</v>
+        <v>463586.8548331145</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>410427.9788969255</v>
+        <v>474786.7469996945</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>396877.7274098317</v>
+        <v>467221.8945364759</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>365890.1403798751</v>
+        <v>428675.271911642</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>355805.5687622785</v>
+        <v>425473.6481496225</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>349062.8663865694</v>
+        <v>409651.2836319134</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>342486.384742088</v>
+        <v>400586.0902622083</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>348115.7825021046</v>
+        <v>410646.5829442687</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>346155.8646985954</v>
+        <v>412829.2676644981</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>339443.1990711159</v>
+        <v>408190.5063496695</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>337814.809707524</v>
+        <v>404453.5065897137</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>332978.6063737904</v>
+        <v>403977.8835295779</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>340613.1137206638</v>
+        <v>409623.9628390099</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>335315.0344960601</v>
+        <v>408559.2940998187</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>337795.3815815743</v>
+        <v>415408.5236121456</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>335498.1284740533</v>
+        <v>430866.9260566868</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>342387.380060943</v>
+        <v>434590.0505617909</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>340152.6138665021</v>
+        <v>454394.2309066881</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>345046.0857929213</v>
+        <v>506027.1945602254</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>343580.7213015179</v>
+        <v>522325.6403628501</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>341292.3399542801</v>
+        <v>534512.6926005749</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>340472.7512459305</v>
+        <v>523335.1289843911</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>346632.2338033889</v>
+        <v>518217.7420829991</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>344656.4089948594</v>
+        <v>511501.4822891841</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>338923.0600884638</v>
+        <v>507257.7270644604</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>339139.812705249</v>
+        <v>496670.8960876665</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>342414.7860489357</v>
+        <v>488034.183603911</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>347415.8412505319</v>
+        <v>490493.5854452043</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>348764.8356226576</v>
+        <v>499909.3316274011</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>331670.371282688</v>
+        <v>480775.5242750286</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>368014.4429366587</v>
+        <v>476482.9889438015</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>326921.686206239</v>
+        <v>408144.4655886338</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>333833.5526998016</v>
+        <v>400643.8936525957</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>316208.233038751</v>
+        <v>378595.7671567785</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>302961.7758010885</v>
+        <v>350301.1149388637</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>294324.1949894328</v>
+        <v>354303.2151664697</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>292757.5828865066</v>
+        <v>381638.3623599161</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>290554.3343919936</v>
+        <v>404099.7176159809</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>293691.0750872997</v>
+        <v>401627.5865309081</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>293867.8840340086</v>
+        <v>401338.4442507217</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>290975.6562231051</v>
+        <v>394579.0603865698</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>284261.4890920415</v>
+        <v>375867.2743894014</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>285684.6887526749</v>
+        <v>399843.4542731077</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>290586.9242744525</v>
+        <v>373859.3735280758</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>359433.0174669879</v>
+        <v>407600.0250302061</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>356783.2154987491</v>
+        <v>409324.4043027953</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>354013.4096223939</v>
+        <v>441582.2341137033</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>357131.7141674505</v>
+        <v>423472.5842554568</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>363270.0043775049</v>
+        <v>408397.6361319685</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>364418.0681969434</v>
+        <v>408267.5824832906</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>366296.5866904106</v>
+        <v>420715.9637381019</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>371027.9030199331</v>
+        <v>431964.0704345665</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>370845.577063702</v>
+        <v>414497.1622920975</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>358292.1477923424</v>
+        <v>421099.1880403375</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>309962.2854639313</v>
+        <v>424426.2182308606</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>328305.1078288651</v>
+        <v>431981.8590128396</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>341652.9776973333</v>
+        <v>415452.0337369327</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>347055.1942061614</v>
+        <v>432808.201028357</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>355302.6745658388</v>
+        <v>420927.1196955381</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>355679.1280595547</v>
+        <v>420897.1319648435</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>355099.7376198726</v>
+        <v>417592.9988280532</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>327614.2710065751</v>
+        <v>347926.1017827996</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>336649.524804065</v>
+        <v>276213.1429049059</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>366672.1432461662</v>
+        <v>276049.184507217</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>394586.6686636626</v>
+        <v>265294.9913731308</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>382986.2928965875</v>
+        <v>275270.2613861918</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>407366.7922235614</v>
+        <v>281234.465050132</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>405606.5541249652</v>
+        <v>312601.0336605157</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>398029.0766907982</v>
+        <v>353344.0140802949</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>393027.2706669541</v>
+        <v>331646.4510883698</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>382112.1303109266</v>
+        <v>352177.2525658881</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>376266.8248743407</v>
+        <v>357037.4977976064</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>372915.3631350163</v>
+        <v>369528.7452103793</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>378426.966584074</v>
+        <v>359460.7595655722</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>399818.0278099881</v>
+        <v>330584.3419370425</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>392755.2224273917</v>
+        <v>324294.3683111804</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>372755.948812274</v>
+        <v>286841.6792192723</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>377457.6982005076</v>
+        <v>270861.7713151245</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>357446.4632614764</v>
+        <v>258441.9232480998</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>355129.7549252768</v>
+        <v>261437.5084581233</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>349458.9831815997</v>
+        <v>285515.1923590544</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>354432.1176645189</v>
+        <v>284941.0838610027</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>363478.9038347445</v>
+        <v>272731.0632300982</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>381246.480110655</v>
+        <v>276871.8063300818</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>393201.5420298441</v>
+        <v>277997.9584299368</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>396892.1145828757</v>
+        <v>301741.01690647</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>403485.9526178432</v>
+        <v>289079.3818945815</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>427512.1224508812</v>
+        <v>282482.3030762862</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>421611.4116026717</v>
+        <v>273721.3351290856</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>414829.1058248234</v>
+        <v>285155.3883041349</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>428642.6178194291</v>
+        <v>278030.595511928</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>274525.5249149401</v>
+        <v>169179.3324578331</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>339261.0375940949</v>
+        <v>190249.1263762581</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>332929.860382862</v>
+        <v>199840.587608064</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>345470.2651349247</v>
+        <v>218633.1579749532</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>306739.221824005</v>
+        <v>239819.4879270572</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>291108.7171745363</v>
+        <v>262686.0004627928</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>240576.4324541383</v>
+        <v>275837.2574131259</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>239656.4911908807</v>
+        <v>280327.3166340514</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>273165.6801987895</v>
+        <v>276810.2476268826</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>293197.7513862961</v>
+        <v>451454.4621175019</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>281449.0586279985</v>
+        <v>389327.4457196332</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>287327.0887708</v>
+        <v>456129.0842448847</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>278349.6900170947</v>
+        <v>327459.7953069764</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>310567.2079857167</v>
+        <v>385066.9943347595</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>345793.4810590236</v>
+        <v>265228.8267710934</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>389689.3288678685</v>
+        <v>314330.6968878473</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>416061.3830358182</v>
+        <v>318226.6823085378</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>447694.2288125753</v>
+        <v>442120.3914189533</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>447296.77761593</v>
+        <v>476119.7044946791</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>506602.8261660745</v>
+        <v>543602.37311522</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>501914.7225915678</v>
+        <v>559021.4095683722</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>505453.873038788</v>
+        <v>582656.5469241466</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>499338.3843444615</v>
+        <v>578489.9215214128</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>511574.3489166833</v>
+        <v>579505.8310663721</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>518368.5436380596</v>
+        <v>579387.1365759837</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>533529.9281901941</v>
+        <v>579101.4389044506</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>523512.965315634</v>
+        <v>580023.1188402835</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>524349.2550660555</v>
+        <v>583669.6358765294</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>509810.7076683183</v>
+        <v>587186.0053958528</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>500675.7472028101</v>
+        <v>587914.8434527501</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>474555.9644966121</v>
+        <v>589805.0076162632</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>519688.1152185723</v>
+        <v>589728.9894424117</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>541916.1995479424</v>
+        <v>589186.3336919775</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>554974.3166005149</v>
+        <v>587288.4972136073</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>571364.4121699706</v>
+        <v>580023.9980597071</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>574393.9595020418</v>
+        <v>570582.1596403188</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>580058.0021333504</v>
+        <v>576733.8854197641</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>588162.6196006234</v>
+        <v>573197.5108388053</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>592715.1421843274</v>
+        <v>577071.1842680253</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>585908.7997270714</v>
+        <v>574230.2747376524</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>591103.6598891634</v>
+        <v>582640.7877174685</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>577620.3414381767</v>
+        <v>584467.1404319262</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>573561.6391334276</v>
+        <v>594948.6380978718</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>570063.2683261716</v>
+        <v>598099.5876874245</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>577896.1714756255</v>
+        <v>599355.65851853</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>574095.3099452764</v>
+        <v>598592.5515209566</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>575335.9072899469</v>
+        <v>598491.9522990106</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>580751.5977492537</v>
+        <v>598852.3201601083</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>589846.9229654224</v>
+        <v>598756.9448639257</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>586403.7958938727</v>
+        <v>598830.1446176168</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>594866.1063667976</v>
+        <v>598147.5091161198</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>593874.1575586699</v>
+        <v>547928.6156607053</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>601592.7296848922</v>
+        <v>575216.3277484162</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>595360.5733354352</v>
+        <v>597236.8875726229</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>598258.3772226559</v>
+        <v>598240.1925631177</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>590736.8097246487</v>
+        <v>598728.6302624819</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>587896.4147508</v>
+        <v>599154.7841314757</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>582605.9249234126</v>
+        <v>599371.9632294901</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>571440.1774216931</v>
+        <v>598566.834009108</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>555784.7646013824</v>
+        <v>599826.9233409308</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>540996.1359683856</v>
+        <v>599415.9280651966</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>504727.3934590926</v>
+        <v>601193.3131608575</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>497504.5354195774</v>
+        <v>594542.4824219143</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>482623.3976444063</v>
+        <v>568230.9236801185</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>468778.5658957351</v>
+        <v>516021.5806244304</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>465352.5751746548</v>
+        <v>504224.9587116785</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>449987.6207712654</v>
+        <v>508732.6392515049</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>426368.8738447226</v>
+        <v>494055.5032486324</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>409850.1724421633</v>
+        <v>473657.7621154987</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>416663.8397714382</v>
+        <v>495896.4784704542</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>382653.7787370224</v>
+        <v>480578.6784371032</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>354216.0967135191</v>
+        <v>475561.0282329928</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>363123.2310484461</v>
+        <v>473956.7111464235</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>378214.8104846278</v>
+        <v>462036.8565777691</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>370112.4419910131</v>
+        <v>437281.0812174493</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>352267.5201109063</v>
+        <v>424860.1921312435</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>346808.0464146463</v>
+        <v>429262.4636478754</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>355146.2176721</v>
+        <v>457866.9703872259</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>356156.9890625478</v>
+        <v>426087.8115894922</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>347045.2484624757</v>
+        <v>399926.1656765387</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>338896.259146372</v>
+        <v>407538.2120070824</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>329927.187198371</v>
+        <v>387145.4809729967</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>309299.9742441736</v>
+        <v>401553.7112207009</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>319825.490973471</v>
+        <v>363264.9985570128</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>327401.7999006603</v>
+        <v>362591.6711656316</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>334383.0303930861</v>
+        <v>368440.7869792929</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>318864.1945898524</v>
+        <v>356978.6639215375</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>313835.9998491691</v>
+        <v>374385.5781648369</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>307101.9833807116</v>
+        <v>406700.123282331</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>288272.8156706015</v>
+        <v>400928.5061332905</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>296184.3586249783</v>
+        <v>398769.3497640734</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>285992.8597527108</v>
+        <v>387297.8997034304</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>290393.7313262668</v>
+        <v>340147.2292336849</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>277594.0486004545</v>
+        <v>316396.7798475685</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>328931.0024817126</v>
+        <v>323115.5556327482</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>294411.9293306232</v>
+        <v>313208.3702389599</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>297866.3536900873</v>
+        <v>329297.2812710973</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>296446.3685510345</v>
+        <v>321421.9265682267</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>286101.1547092685</v>
+        <v>323886.1267474284</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>279892.5826426798</v>
+        <v>320329.1592622391</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>278974.0791705612</v>
+        <v>301956.9049135618</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>286299.2322891622</v>
+        <v>280676.4150047854</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>277890.8129138735</v>
+        <v>296118.4913215851</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>272965.9179323251</v>
+        <v>267541.5011336299</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>269839.4579828091</v>
+        <v>297978.6569216587</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>270214.1183828444</v>
+        <v>274926.8096430403</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>253858.5753211171</v>
+        <v>258209.1306531808</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>273791.2741094833</v>
+        <v>286241.1058266339</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>286253.5806831851</v>
+        <v>284209.8194205747</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>284860.3711479181</v>
+        <v>276221.021053077</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>272531.7892764907</v>
+        <v>248966.7139626235</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>272548.1747768736</v>
+        <v>259810.0307812164</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>281453.2014674593</v>
+        <v>262062.6860663009</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>289449.339368757</v>
+        <v>263538.4260560177</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>295371.7472449288</v>
+        <v>275423.6986119639</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>290967.2105568876</v>
+        <v>252511.7747065155</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>291609.1042820119</v>
+        <v>278223.0330601896</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>278037.0371369576</v>
+        <v>273686.9435678286</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>268431.4204097167</v>
+        <v>275337.1969632989</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>303777.5432788283</v>
+        <v>266126.8075598122</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>321552.0453612337</v>
+        <v>257200.5865779619</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>292770.9636115032</v>
+        <v>276164.4368314901</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>346974.3458569899</v>
+        <v>321463.9214173812</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>260327.6616046331</v>
+        <v>231503.2017984439</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>216150.8407195711</v>
+        <v>217490.5708090281</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>201461.1220761256</v>
+        <v>213655.5835285766</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>201241.0800908109</v>
+        <v>234596.3749265822</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>199924.0678214797</v>
+        <v>242156.2877720802</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>221992.6113062465</v>
+        <v>224251.8685185454</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>239974.5963771488</v>
+        <v>239575.7891199825</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>234923.3480187688</v>
+        <v>239352.6398177019</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>252038.4528156717</v>
+        <v>228343.8054234255</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>238144.8199669046</v>
+        <v>202783.9228074916</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>219236.8905718269</v>
+        <v>190336.3915217726</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>214667.4670559333</v>
+        <v>198416.0679810631</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>221260.9238234848</v>
+        <v>180920.4839257186</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>238923.8580747429</v>
+        <v>176361.6786307236</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>274167.00957043</v>
+        <v>177405.9020393964</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>306406.2086239491</v>
+        <v>177057.0085243257</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>309396.7684898382</v>
+        <v>180679.2061400741</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>270530.4988311263</v>
+        <v>203951.8879403619</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>264992.9439922619</v>
+        <v>216243.9873095067</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>268457.0295040436</v>
+        <v>225961.2857720946</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>295485.4396639337</v>
+        <v>238124.2214357868</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>282824.160156844</v>
+        <v>238101.1833630558</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>269129.5241823465</v>
+        <v>239777.903794884</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>268933.0558304908</v>
+        <v>255932.1100178278</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>276263.5366113691</v>
+        <v>247127.1164163999</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>280543.9220900823</v>
+        <v>237664.5884510709</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>301388.3187397716</v>
+        <v>223796.0017908541</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>298689.2160433437</v>
+        <v>223449.9424792113</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>289555.4062542689</v>
+        <v>236928.8179749047</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>276936.7669221303</v>
+        <v>240135.6245623097</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>275780.7455892087</v>
+        <v>251277.8268033184</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>290582.9440610249</v>
+        <v>258483.982139279</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>288910.1857130405</v>
+        <v>262276.8393877958</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>286950.3907100025</v>
+        <v>248886.7827475095</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>285999.1741718997</v>
+        <v>247198.2803125801</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>278837.9087305641</v>
+        <v>264005.9555826986</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>279404.1448712994</v>
+        <v>258282.3406172981</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>286646.4647015267</v>
+        <v>249887.409350354</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>296630.0867070895</v>
+        <v>248892.384988309</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>304147.7430888065</v>
+        <v>253298.565981268</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>299657.3475646785</v>
+        <v>249610.9845665412</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>325648.6627189713</v>
+        <v>234443.3220698559</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>326151.6421764725</v>
+        <v>233790.3874144689</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>316156.4595735201</v>
+        <v>234951.3733791998</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>325700.2668929048</v>
+        <v>228529.2490134111</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>339729.0264998918</v>
+        <v>229469.9329730759</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>324173.4680550029</v>
+        <v>228598.1750735854</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>319107.7637132288</v>
+        <v>233113.8614407109</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>311227.742508575</v>
+        <v>229736.4122830459</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>310677.5647558302</v>
+        <v>243492.4622165959</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>318735.3927281577</v>
+        <v>240741.7320196206</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>316750.3968087853</v>
+        <v>251626.1316643856</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>337661.0621341848</v>
+        <v>253471.1767105143</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>353856.655251858</v>
+        <v>262591.3923876411</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>358136.5941393962</v>
+        <v>260205.0041559125</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>370099.2325329482</v>
+        <v>257877.9799248395</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>357126.2874312989</v>
+        <v>250691.2277299511</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>339682.2806190518</v>
+        <v>248160.0088697835</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>336290.9675220028</v>
+        <v>238213.2108016243</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>317364.0773793811</v>
+        <v>238603.6630339114</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>315070.6507194977</v>
+        <v>244178.1831412787</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>311283.4753547722</v>
+        <v>237799.3652479482</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>300471.4359990899</v>
+        <v>231372.8855772629</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>299761.0983777312</v>
+        <v>245991.7873862191</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>303362.8235665091</v>
+        <v>250784.1477168322</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>309809.5562775062</v>
+        <v>254489.2133543825</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>314305.196315562</v>
+        <v>254043.7141093304</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>319390.6197539818</v>
+        <v>253696.5219362627</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>322011.2696699393</v>
+        <v>259661.7651140352</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>318895.3574316346</v>
+        <v>267477.2764467007</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>310383.0294908093</v>
+        <v>271701.0537170878</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>308909.6165927505</v>
+        <v>268161.52941018</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>303451.1759206393</v>
+        <v>273708.6040340735</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>311294.7369368992</v>
+        <v>272267.8300600735</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>291883.7684826612</v>
+        <v>264809.1685901974</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>285053.5469126973</v>
+        <v>248219.8583469083</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>277589.4796199001</v>
+        <v>256828.1683152604</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>270214.3269767165</v>
+        <v>272563.5282890067</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>278141.1617142686</v>
+        <v>269954.8770202156</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>292930.4590020036</v>
+        <v>262554.1331491639</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>292760.1018168172</v>
+        <v>262174.4958017506</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>306889.9148137296</v>
+        <v>261022.1404827923</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>339028.9983509031</v>
+        <v>258509.6328758716</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>359867.3868542146</v>
+        <v>244059.3184769789</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>377022.753636105</v>
+        <v>250320.9739720456</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>391784.0120609293</v>
+        <v>271777.22559387</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>382843.241735124</v>
+        <v>283021.2248732981</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>364124.0101021172</v>
+        <v>296214.7185586014</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>361690.642702219</v>
+        <v>279387.5276324638</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>330487.3755064076</v>
+        <v>283974.9475072353</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>312136.1788359095</v>
+        <v>278120.5293916451</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>286374.4235038105</v>
+        <v>275150.9674186765</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>353156.2485830466</v>
+        <v>332113.5630766656</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>347968.3925128488</v>
+        <v>322925.5434110378</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>341947.9308992689</v>
+        <v>345895.4672013533</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>349246.8758994383</v>
+        <v>336407.2986134103</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>355771.8051805329</v>
+        <v>351792.7485276044</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>364072.8978775849</v>
+        <v>356479.0722613664</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>343556.5004530604</v>
+        <v>416130.7881248846</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>341626.752795325</v>
+        <v>404911.3548275054</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>387955.3963879525</v>
+        <v>381572.4206616437</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>396677.3510053881</v>
+        <v>362884.9178638488</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>402254.2500217846</v>
+        <v>372264.3856099591</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>403711.3381322692</v>
+        <v>380133.9591845475</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>348864.6421468639</v>
+        <v>352552.5768259419</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>358963.5711692197</v>
+        <v>333617.5931169773</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>364201.0299086676</v>
+        <v>328007.3897693519</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>382241.026393341</v>
+        <v>340537.2638768848</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>365874.0960552736</v>
+        <v>342932.7589877736</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>368752.573265972</v>
+        <v>349675.1307839656</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>362172.7000850399</v>
+        <v>332347.4176307162</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>357795.0958700061</v>
+        <v>326990.3629055757</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>340754.7808079494</v>
+        <v>315417.647110217</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>336787.3299889891</v>
+        <v>320464.4869709653</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>347422.9261719866</v>
+        <v>313770.1096333167</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>346125.2725185086</v>
+        <v>308391.0240378125</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>354014.1833498042</v>
+        <v>312529.3606624498</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>337530.0300045925</v>
+        <v>314662.7150506032</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>333664.9045714538</v>
+        <v>322257.7326801392</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>328538.0482979317</v>
+        <v>323949.5612830419</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>332621.4999963437</v>
+        <v>345601.5859606888</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>324079.5519920386</v>
+        <v>354675.84305891</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>318560.913019824</v>
+        <v>366411.4594581482</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>288247.4777215158</v>
+        <v>372355.8586730856</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>302241.8762864671</v>
+        <v>413915.8003298666</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>304965.9984808547</v>
+        <v>378731.6331950499</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>307767.8074422876</v>
+        <v>354433.5722577492</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>303387.2395031249</v>
+        <v>339674.6501770648</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>298530.0697587247</v>
+        <v>337297.0229239993</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>300505.5751956732</v>
+        <v>363711.3973191559</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>303920.7942514083</v>
+        <v>350394.8721558162</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>311838.6883030402</v>
+        <v>347395.1923338448</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>315458.3798157001</v>
+        <v>367487.9092259837</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>333668.8889362693</v>
+        <v>354635.5760775221</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>355352.8015280094</v>
+        <v>358416.8507307284</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>369443.1176699685</v>
+        <v>368754.6391168092</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>399262.9493474582</v>
+        <v>362107.0218551048</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>405947.7724011274</v>
+        <v>339304.7407284174</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>387144.2703272417</v>
+        <v>338902.2263942818</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>380693.3195899879</v>
+        <v>385157.8108960658</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>371189.1360414762</v>
+        <v>466205.7933722631</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>357226.6225786827</v>
+        <v>508842.0620417251</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>346222.7555938273</v>
+        <v>534220.666469237</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>337539.9977858473</v>
+        <v>550798.9255610184</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>327676.969798347</v>
+        <v>550914.1438820832</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>349582.3538452493</v>
+        <v>551734.5745404642</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>363946.5369203073</v>
+        <v>553856.9650248588</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>361085.5259783232</v>
+        <v>547158.2202064764</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>355328.9419377165</v>
+        <v>542314.0193710196</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>353923.4781834091</v>
+        <v>545425.9254696696</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>356238.8859264877</v>
+        <v>536286.366090575</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>356747.4133026026</v>
+        <v>523018.2791104123</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>357084.4747355388</v>
+        <v>529997.9037636699</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>353235.1603884923</v>
+        <v>528723.1342887431</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>351339.8365312419</v>
+        <v>503405.9586570895</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>352830.6900068322</v>
+        <v>503510.1932683731</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>358927.278756142</v>
+        <v>486656.9656050754</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>372714.7577322419</v>
+        <v>475304.9632174025</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>397806.4426943853</v>
+        <v>494343.0887099025</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>387408.436283824</v>
+        <v>481192.2043994643</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>408727.6745876684</v>
+        <v>487269.4629337196</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>388954.7358821476</v>
+        <v>444867.2569314371</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>373805.3497503325</v>
+        <v>479749.165547371</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>386439.2592053136</v>
+        <v>470880.2587596015</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>382352.9332026904</v>
+        <v>466363.0436735048</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>390985.5624920489</v>
+        <v>463821.1742478008</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>401785.7001069683</v>
+        <v>465008.4014862016</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>407420.3434875393</v>
+        <v>458393.4333610442</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>423855.3362843947</v>
+        <v>431650.2037130854</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>436775.6888867153</v>
+        <v>427413.0679845928</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>430335.8238289014</v>
+        <v>408771.8267359546</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>425616.4924306904</v>
+        <v>412758.1550638834</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>443731.8624942374</v>
+        <v>410498.4201617479</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>502009.9739853515</v>
+        <v>403161.565111691</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>526242.6862291405</v>
+        <v>416577.7202395038</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>529325.1449038346</v>
+        <v>416635.2040126383</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>516179.4272813985</v>
+        <v>404699.7941177253</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>492334.8882309441</v>
+        <v>421265.0475479173</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>476673.4596652047</v>
+        <v>413376.9592512819</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>468604.9447581751</v>
+        <v>408698.5210630772</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>460851.0502586036</v>
+        <v>397819.6428820894</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>460845.4952888379</v>
+        <v>406097.3383302261</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>391138.0568480681</v>
+        <v>344808.3778834554</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>403837.729488696</v>
+        <v>344101.6017249015</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>429583.9705624032</v>
+        <v>336309.1502203423</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>439492.629397619</v>
+        <v>343158.2656259836</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>447437.6753795674</v>
+        <v>332730.6679115119</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>442287.7064328845</v>
+        <v>332312.6719703752</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>427610.9916777167</v>
+        <v>330000.253648242</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>418093.4537549817</v>
+        <v>349685.5941759148</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>391351.1669632237</v>
+        <v>404660.1276132561</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>406792.9653658219</v>
+        <v>443795.5199903724</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>398849.5682821246</v>
+        <v>433900.7557366248</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>396238.6333902657</v>
+        <v>445204.524351024</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>371513.4636498299</v>
+        <v>440291.8255114849</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>360675.1735776452</v>
+        <v>426029.7140788402</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>361641.3797846118</v>
+        <v>434762.8124158878</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>370179.7661646762</v>
+        <v>447256.9315893222</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>369243.6713100891</v>
+        <v>474766.528239363</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>375219.8420215839</v>
+        <v>433501.3765324194</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>352634.5274817639</v>
+        <v>421195.5291861991</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>357737.3894161004</v>
+        <v>438777.7385458124</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>362175.7133464446</v>
+        <v>440767.1230106713</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>357820.1165011294</v>
+        <v>433168.388485164</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>346016.7481770646</v>
+        <v>412654.1239584717</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>376703.448023612</v>
+        <v>354032.646431426</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>379056.6743012186</v>
+        <v>379128.6877594411</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>379407.2048448395</v>
+        <v>389834.1491443813</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>375306.8258138466</v>
+        <v>453063.6909001364</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>373870.3905292547</v>
+        <v>491208.1476951402</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>366539.5701409418</v>
+        <v>499436.7822666991</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>373333.1207271841</v>
+        <v>488270.0336794975</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>336717.9891463188</v>
+        <v>413594.9279514715</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>287230.1945142359</v>
+        <v>405112.1482386561</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>292494.8151711246</v>
+        <v>399701.7057544731</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>321475.9930646498</v>
+        <v>378024.5107664441</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>357143.3574105824</v>
+        <v>394936.1219663428</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>405611.0743832961</v>
+        <v>384212.8157460754</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>440547.0733658529</v>
+        <v>398609.9911819067</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>459867.4863876852</v>
+        <v>422884.5308115117</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>469466.9991553045</v>
+        <v>426467.1389129913</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>435390.7217400903</v>
+        <v>435916.7683504024</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>416536.962444087</v>
+        <v>440929.602425348</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>405024.1869866723</v>
+        <v>435967.3524698206</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>385067.6188256414</v>
+        <v>428376.6696420863</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>383065.866091311</v>
+        <v>429452.1717077291</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>352878.5397272503</v>
+        <v>423832.4940192143</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>339482.5723383163</v>
+        <v>386169.2964045451</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>323309.9057230795</v>
+        <v>414652.0338648157</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>319963.1974614687</v>
+        <v>425947.1125852831</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>337648.1483214925</v>
+        <v>419703.2799407025</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>335212.0575229456</v>
+        <v>422245.4663797896</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>351208.0347887148</v>
+        <v>421627.979335799</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>381410.6366586802</v>
+        <v>428544.7313151204</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>412265.7712975236</v>
+        <v>445825.6162118289</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>423426.0375257058</v>
+        <v>471053.6736741217</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>463648.1241227954</v>
+        <v>509437.9929245977</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>465279.2154568357</v>
+        <v>529643.9954647539</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>455735.6120507299</v>
+        <v>542920.3150161959</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>442233.0133073718</v>
+        <v>549199.016231287</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>405599.9467640409</v>
+        <v>537963.998346856</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>400506.6380479222</v>
+        <v>538227.5804995333</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>221530.8756940429</v>
+        <v>334562.6541141238</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>224475.2629459554</v>
+        <v>361947.3086370484</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>226946.5213246514</v>
+        <v>309358.6387057776</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>223410.4452420557</v>
+        <v>327006.7907124464</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>227066.0832740115</v>
+        <v>324106.5590980629</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>224092.560666664</v>
+        <v>358342.7688145352</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>238574.046672658</v>
+        <v>391288.6894627651</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>256460.9739974405</v>
+        <v>430068.2930973608</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>294811.0525121741</v>
+        <v>453894.2268695924</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>290175.426661799</v>
+        <v>495944.9630240454</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>281123.0199515767</v>
+        <v>506319.1519784008</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>283713.637254199</v>
+        <v>505351.3228604909</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>290120.4106937803</v>
+        <v>495395.8393481714</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>293355.4116625976</v>
+        <v>500699.2421935534</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>293707.0857814956</v>
+        <v>522825.5539782826</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>297078.2481410814</v>
+        <v>527799.6723085</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>306306.6971941437</v>
+        <v>552778.5320258185</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>348452.8200207661</v>
+        <v>560639.113053558</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>454649.8352190724</v>
+        <v>544908.8746582364</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>502310.3795067</v>
+        <v>563032.4556613641</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>587157.3921027899</v>
+        <v>570934.9882536231</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>592982.8015362729</v>
+        <v>567989.7831490082</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>593298.2717816103</v>
+        <v>559338.0278808823</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>579583.645894079</v>
+        <v>553795.9409250639</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>584856.2217612299</v>
+        <v>540736.5768564213</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>581303.463792756</v>
+        <v>548401.6499653294</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>576630.7214285389</v>
+        <v>519722.1178047878</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>563088.6788051518</v>
+        <v>513510.2722112135</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>565489.9655689922</v>
+        <v>534674.6534473774</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>537995.5946422226</v>
+        <v>541676.9325899631</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>558549.937166133</v>
+        <v>538966.8467014892</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>570488.729406704</v>
+        <v>570609.8065911154</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>588352.032855266</v>
+        <v>579180.029228267</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>568976.906033308</v>
+        <v>575726.0574320031</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>588756.8605682051</v>
+        <v>576698.8555903167</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>578836.3219890432</v>
+        <v>596597.2588668371</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>586898.1723559196</v>
+        <v>574651.742177844</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>568632.0928607503</v>
+        <v>593044.6860797189</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>591692.5859576964</v>
+        <v>590736.1669738576</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>587456.8750683066</v>
+        <v>587229.7893460112</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>602773.4256384292</v>
+        <v>583445.8811577588</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>582748.7690479982</v>
+        <v>580541.9806474604</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>601426.6245776204</v>
+        <v>581361.1075382804</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>599429.7911388234</v>
+        <v>581425.0890819153</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>603708.1449810492</v>
+        <v>578971.3040446492</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>576381.6209067238</v>
+        <v>557920.7410971986</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>572054.6888062311</v>
+        <v>533207.5594035109</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>497711.996949585</v>
+        <v>518417.0596265272</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>529149.2864066161</v>
+        <v>563794.9310805029</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>460155.2741755847</v>
+        <v>584864.4535477766</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>512211.1227541615</v>
+        <v>581435.7724958707</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>501653.4166822706</v>
+        <v>565196.4336011361</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>570515.5755214143</v>
+        <v>564982.9403849511</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>544207.0860139607</v>
+        <v>559565.2848795024</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>570994.9852200536</v>
+        <v>572726.5439917344</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>572504.9114701799</v>
+        <v>547330.1140508705</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>562453.3564766336</v>
+        <v>544022.7002713461</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>565645.2549881191</v>
+        <v>530753.7821929874</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>566378.728742189</v>
+        <v>534553.8589029216</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>563178.9111104961</v>
+        <v>548838.5567440207</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>565468.2704513739</v>
+        <v>529816.8446694959</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>563545.2001206276</v>
+        <v>537906.2608884434</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>540647.5147956649</v>
+        <v>526471.4075704778</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>539837.9723731324</v>
+        <v>508564.0768158173</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>542721.7579549357</v>
+        <v>476670.0098719017</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>547129.1120320545</v>
+        <v>451822.6571362262</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>536633.3389194563</v>
+        <v>450437.1239626648</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>524962.0579354077</v>
+        <v>494787.6073318353</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>499416.2799299449</v>
+        <v>489405.5255464943</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>479744.8598853864</v>
+        <v>449520.9275397795</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>479424.4740363497</v>
+        <v>469182.5166876551</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>481626.4244494486</v>
+        <v>456574.8206610158</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>441369.1046167126</v>
+        <v>443257.6470773608</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>445641.4278143503</v>
+        <v>437466.5674419194</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>458336.9058690586</v>
+        <v>436667.094902085</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>442224.5069515043</v>
+        <v>413261.6760097416</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>418455.1530328129</v>
+        <v>419151.6474339968</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>405088.4441483075</v>
+        <v>455518.9694121373</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>415238.1061048636</v>
+        <v>421206.8427850682</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>431854.3189539821</v>
+        <v>404801.6514179147</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>380075.2569653825</v>
+        <v>400459.1228690391</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>376479.1315895285</v>
+        <v>366328.784000758</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>358632.430734425</v>
+        <v>375710.3930790928</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>323326.9991197335</v>
+        <v>382752.2292011904</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>358694.3662973728</v>
+        <v>408402.3115746547</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>392738.6604909352</v>
+        <v>364036.4582105302</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>401960.8832692553</v>
+        <v>350552.6986901121</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>383806.6860894777</v>
+        <v>329266.7883233677</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>376484.5777662239</v>
+        <v>320986.9346702821</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>358372.3201966431</v>
+        <v>327411.4059696202</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>354426.7028304659</v>
+        <v>323408.2366956043</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>327485.7501674072</v>
+        <v>313081.6447043452</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>336311.808680028</v>
+        <v>310132.4398005622</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>276743.0569233415</v>
+        <v>277920.7076990129</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>292819.102461223</v>
+        <v>270353.7775057039</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>292518.4218097583</v>
+        <v>284961.0016883163</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>282991.3012791268</v>
+        <v>279788.0742626959</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>288110.6654277152</v>
+        <v>250788.7097530695</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>281282.8537740625</v>
+        <v>253604.4940089875</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>283127.5493298317</v>
+        <v>239566.5597963205</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>280656.3132119641</v>
+        <v>252364.5072461198</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>271282.2759431247</v>
+        <v>245338.2720031891</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>298851.6722786014</v>
+        <v>245855.1932392865</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>298401.0558860877</v>
+        <v>254039.9871048912</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>262665.0770612664</v>
+        <v>235598.3549560939</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>278852.7100918805</v>
+        <v>244730.3724913656</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>247905.4823004137</v>
+        <v>245593.063524096</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>265564.4295879112</v>
+        <v>257547.6862769989</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>272968.0627766724</v>
+        <v>259878.0745743925</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>257465.0730518894</v>
+        <v>273563.0330434535</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>261734.9693980245</v>
+        <v>278297.8665584446</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>280754.1654464168</v>
+        <v>269614.2298076021</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>256702.1894853832</v>
+        <v>257263.9625056429</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>257688.6102696657</v>
+        <v>262757.8682980594</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8096,7 +8096,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>264503.9402171967</v>
+        <v>265045.4063694585</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>255922.5773472</v>
+        <v>255577.4251850365</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>282124.3594388471</v>
+        <v>243776.8397394801</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>297031.2930510366</v>
+        <v>242539.3138418704</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>276030.050190047</v>
+        <v>248570.2940691707</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>282980.0351881922</v>
+        <v>233627.0958233817</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>289308.3445576999</v>
+        <v>234240.1826673954</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>288869.4961855042</v>
+        <v>255469.6754665384</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>354559.7651845719</v>
+        <v>306371.5516640948</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>287163.9128003632</v>
+        <v>220335.3450996678</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>262066.6761054917</v>
+        <v>198866.9176041989</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>222146.9934564151</v>
+        <v>206005.3784019517</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>204357.0159148764</v>
+        <v>188972.4190575779</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>204046.5083161231</v>
+        <v>186943.198760506</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>202252.5363202342</v>
+        <v>182456.6219754264</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>198768.3907315068</v>
+        <v>200253.520543461</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>187036.849473229</v>
+        <v>177278.8069068874</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>183615.1708149038</v>
+        <v>204005.0201093001</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>174560.2285725089</v>
+        <v>209253.2898818917</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>180143.6758402067</v>
+        <v>202649.6852187339</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>180048.1461456339</v>
+        <v>221208.7701040452</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>178180.1434629256</v>
+        <v>209316.5509126322</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>193585.7802938632</v>
+        <v>209817.4064244953</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>206569.0993421181</v>
+        <v>216390.8886733108</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>200469.8525008965</v>
+        <v>225500.9579363404</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>195961.8774516891</v>
+        <v>215037.3693764959</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>194951.6243360988</v>
+        <v>208077.8201928506</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>199020.5305401389</v>
+        <v>197325.5595990394</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>202687.363815235</v>
+        <v>214732.5452408606</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>215691.8005166529</v>
+        <v>220138.5991326528</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>204175.6694851194</v>
+        <v>221861.2111057047</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>203737.7617044094</v>
+        <v>220005.6934908835</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8352,7 +8352,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>207152.0750787125</v>
+        <v>208027.5849988579</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>208064.2745192533</v>
+        <v>207356.2804859644</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>211073.9039550445</v>
+        <v>212842.0679585822</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>201144.4487074238</v>
+        <v>225033.9028019126</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" t="n">
-        <v>204347.1330126413</v>
+        <v>204637.6054572667</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" t="n">
-        <v>215467.9439431843</v>
+        <v>221381.5080655019</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8400,7 +8400,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="n">
-        <v>207541.1014296298</v>
+        <v>272967.2084022568</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="n">
-        <v>197791.1827016013</v>
+        <v>346185.7065455872</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>1004</v>
       </c>
       <c r="B1006" t="n">
-        <v>227196.7275571537</v>
+        <v>347797.8227975319</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>1005</v>
       </c>
       <c r="B1007" t="n">
-        <v>218615.9049612975</v>
+        <v>315042.8473731663</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>1006</v>
       </c>
       <c r="B1008" t="n">
-        <v>225084.6962026416</v>
+        <v>306657.7735216828</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>1007</v>
       </c>
       <c r="B1009" t="n">
-        <v>229448.8017119825</v>
+        <v>297996.966437964</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" t="n">
-        <v>223230.9336288672</v>
+        <v>278681.7668520806</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" t="n">
-        <v>230284.1238592055</v>
+        <v>274108.956814467</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" t="n">
-        <v>225047.7366499665</v>
+        <v>294367.9739161016</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" t="n">
-        <v>216861.6782388657</v>
+        <v>273469.3379529334</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" t="n">
-        <v>210170.7358394653</v>
+        <v>288206.0223499736</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" t="n">
-        <v>213100.6213530489</v>
+        <v>272764.2733223327</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" t="n">
-        <v>207760.7860879088</v>
+        <v>291378.5522462337</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" t="n">
-        <v>204399.1042319339</v>
+        <v>284934.6542053718</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="n">
-        <v>212713.6984042658</v>
+        <v>286266.4220910202</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" t="n">
-        <v>212674.7946383348</v>
+        <v>297388.8457964847</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" t="n">
-        <v>211555.4732583378</v>
+        <v>281616.1591847131</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" t="n">
-        <v>212303.2182461767</v>
+        <v>283374.8792903341</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="n">
-        <v>216495.0897605473</v>
+        <v>353589.8063018621</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="n">
-        <v>208566.0252362808</v>
+        <v>405819.6588550368</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="n">
-        <v>212839.5631299342</v>
+        <v>360773.5819062549</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="n">
-        <v>209544.6337423149</v>
+        <v>360377.2959763605</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" t="n">
-        <v>221868.2725700311</v>
+        <v>351821.2115385713</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" t="n">
-        <v>228026.8727729026</v>
+        <v>358419.0408873023</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>1026</v>
       </c>
       <c r="B1028" t="n">
-        <v>218087.3440790825</v>
+        <v>370696.6015963198</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="n">
-        <v>223730.1369597534</v>
+        <v>353399.6893215408</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="n">
-        <v>221772.1225790865</v>
+        <v>350692.4057684201</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>1029</v>
       </c>
       <c r="B1031" t="n">
-        <v>214914.2343909903</v>
+        <v>357589.5359005027</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="n">
-        <v>221340.0969976324</v>
+        <v>334245.0459833883</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="n">
-        <v>221005.3157105022</v>
+        <v>331117.0930803146</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="n">
-        <v>212182.1657448334</v>
+        <v>331163.6995024025</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="n">
-        <v>216370.4750917426</v>
+        <v>323845.1939680987</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>1034</v>
       </c>
       <c r="B1036" t="n">
-        <v>206802.9673183033</v>
+        <v>332720.6919833527</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="n">
-        <v>183456.8109984867</v>
+        <v>356663.1998665106</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="n">
-        <v>192752.3209270767</v>
+        <v>364463.6167983815</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>1037</v>
       </c>
       <c r="B1039" t="n">
-        <v>187711.223268362</v>
+        <v>366936.5144910871</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>1038</v>
       </c>
       <c r="B1040" t="n">
-        <v>191885.893065526</v>
+        <v>363611.0608058673</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>1039</v>
       </c>
       <c r="B1041" t="n">
-        <v>202372.068215752</v>
+        <v>363244.1893554247</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>1040</v>
       </c>
       <c r="B1042" t="n">
-        <v>204815.3757153384</v>
+        <v>358064.2560173625</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" t="n">
-        <v>207874.3542034887</v>
+        <v>364049.9191767136</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>1042</v>
       </c>
       <c r="B1044" t="n">
-        <v>201433.102052315</v>
+        <v>350403.3687639636</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>1043</v>
       </c>
       <c r="B1045" t="n">
-        <v>207549.8199805002</v>
+        <v>338754.2755663741</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>1044</v>
       </c>
       <c r="B1046" t="n">
-        <v>205191.6149753705</v>
+        <v>305374.8700687534</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>1045</v>
       </c>
       <c r="B1047" t="n">
-        <v>210751.5366978866</v>
+        <v>333490.5462731603</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>1046</v>
       </c>
       <c r="B1048" t="n">
-        <v>215159.8662254712</v>
+        <v>326353.4235531099</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="n">
-        <v>215174.4713497867</v>
+        <v>322887.475622619</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>1048</v>
       </c>
       <c r="B1050" t="n">
-        <v>210461.7482955513</v>
+        <v>332171.3600039121</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="n">
-        <v>205973.3403482281</v>
+        <v>306076.2352225491</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>1050</v>
       </c>
       <c r="B1052" t="n">
-        <v>209861.016420382</v>
+        <v>319061.8391776163</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="n">
-        <v>215480.3661811668</v>
+        <v>307908.9766005685</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="n">
-        <v>218102.6876422714</v>
+        <v>294616.8990904003</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>1053</v>
       </c>
       <c r="B1055" t="n">
-        <v>209243.9308682142</v>
+        <v>288548.744096651</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="n">
-        <v>221769.6698208807</v>
+        <v>293480.2018556726</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>1055</v>
       </c>
       <c r="B1057" t="n">
-        <v>219316.1394641986</v>
+        <v>318542.6430687556</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>1056</v>
       </c>
       <c r="B1058" t="n">
-        <v>214182.1341827077</v>
+        <v>299933.1000898842</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="n">
-        <v>211407.1919593693</v>
+        <v>296514.9581944857</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="n">
-        <v>213062.2068802713</v>
+        <v>271847.1315110255</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="n">
-        <v>225626.3806918742</v>
+        <v>289128.2916328812</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="n">
-        <v>229438.0458768359</v>
+        <v>300588.077587711</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>1061</v>
       </c>
       <c r="B1063" t="n">
-        <v>232170.7505294099</v>
+        <v>302599.414837549</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>1062</v>
       </c>
       <c r="B1064" t="n">
-        <v>229041.6637266325</v>
+        <v>286752.6797226178</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>1063</v>
       </c>
       <c r="B1065" t="n">
-        <v>221960.7787619146</v>
+        <v>287315.0202087329</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>1064</v>
       </c>
       <c r="B1066" t="n">
-        <v>220357.5285676206</v>
+        <v>288485.4280869906</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>1065</v>
       </c>
       <c r="B1067" t="n">
-        <v>236285.3528522728</v>
+        <v>360533.2323438184</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>1066</v>
       </c>
       <c r="B1068" t="n">
-        <v>231138.7263488626</v>
+        <v>352936.0531593767</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>1067</v>
       </c>
       <c r="B1069" t="n">
-        <v>235719.9197598837</v>
+        <v>346847.5728332837</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>1068</v>
       </c>
       <c r="B1070" t="n">
-        <v>228277.7854693077</v>
+        <v>331510.4564829786</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>1069</v>
       </c>
       <c r="B1071" t="n">
-        <v>242841.9404317103</v>
+        <v>326965.3535381925</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="n">
-        <v>268182.1612808911</v>
+        <v>315093.9001727194</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>1071</v>
       </c>
       <c r="B1073" t="n">
-        <v>278050.8141491152</v>
+        <v>316931.0106050919</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>1072</v>
       </c>
       <c r="B1074" t="n">
-        <v>292534.8597132608</v>
+        <v>315486.5213631406</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>1073</v>
       </c>
       <c r="B1075" t="n">
-        <v>287106.5507751651</v>
+        <v>325941.7389919586</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>1074</v>
       </c>
       <c r="B1076" t="n">
-        <v>275881.5373621271</v>
+        <v>346120.5951321304</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>1075</v>
       </c>
       <c r="B1077" t="n">
-        <v>277279.0492758089</v>
+        <v>327567.5904807217</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="n">
-        <v>262969.4767448423</v>
+        <v>328478.607449892</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>1077</v>
       </c>
       <c r="B1079" t="n">
-        <v>262759.2013360011</v>
+        <v>325819.581515142</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>1078</v>
       </c>
       <c r="B1080" t="n">
-        <v>252944.2991084457</v>
+        <v>340981.1245730199</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>1079</v>
       </c>
       <c r="B1081" t="n">
-        <v>249486.49936867</v>
+        <v>324813.2377472583</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="n">
-        <v>246571.9598033736</v>
+        <v>330757.5624070401</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>1081</v>
       </c>
       <c r="B1083" t="n">
-        <v>245469.476148809</v>
+        <v>314472.3033033956</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>1082</v>
       </c>
       <c r="B1084" t="n">
-        <v>247061.3255925507</v>
+        <v>327738.8802698812</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>1083</v>
       </c>
       <c r="B1085" t="n">
-        <v>245169.7503123576</v>
+        <v>318463.2723858664</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>1084</v>
       </c>
       <c r="B1086" t="n">
-        <v>250112.5684240975</v>
+        <v>330834.010371512</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>1085</v>
       </c>
       <c r="B1087" t="n">
-        <v>243618.7806543192</v>
+        <v>349798.0325070074</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>1086</v>
       </c>
       <c r="B1088" t="n">
-        <v>236347.949067632</v>
+        <v>384183.6036320309</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>1087</v>
       </c>
       <c r="B1089" t="n">
-        <v>240174.275786268</v>
+        <v>425184.3267249137</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>1088</v>
       </c>
       <c r="B1090" t="n">
-        <v>239497.3993591911</v>
+        <v>434028.5163204334</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>1089</v>
       </c>
       <c r="B1091" t="n">
-        <v>238416.9059661907</v>
+        <v>457399.9891488775</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="n">
-        <v>239495.2347127434</v>
+        <v>466257.3310442375</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>1091</v>
       </c>
       <c r="B1093" t="n">
-        <v>238166.9881874693</v>
+        <v>480116.1873116437</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>1092</v>
       </c>
       <c r="B1094" t="n">
-        <v>234063.0234560772</v>
+        <v>509776.9906159238</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="n">
-        <v>233173.8432668641</v>
+        <v>502299.7330095869</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>1094</v>
       </c>
       <c r="B1096" t="n">
-        <v>238781.7960950393</v>
+        <v>479984.0688748644</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1096"/>
+  <dimension ref="A1:B731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>297240.5091830621</v>
+        <v>355063.9637805255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>384221.2133837072</v>
+        <v>392245.1226699253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>430360.927073909</v>
+        <v>421265.389132115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>454739.2225031218</v>
+        <v>448850.4697442211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490147.1100372154</v>
+        <v>419305.4297865638</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>504554.0436106913</v>
+        <v>419034.4547438641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510438.4702807883</v>
+        <v>429323.0731372376</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521899.3967165867</v>
+        <v>415262.4883170034</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514110.7703035182</v>
+        <v>436881.8832973188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>511596.7640249614</v>
+        <v>387604.0292721677</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502624.9424123074</v>
+        <v>398387.2052789242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>489585.5721721819</v>
+        <v>387395.9042396909</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474569.1090499429</v>
+        <v>381474.9348293899</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469314.4122076803</v>
+        <v>406059.5153052472</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455186.4548149662</v>
+        <v>381001.108463968</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>451191.4933044623</v>
+        <v>402989.04011025</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>446600.1115940803</v>
+        <v>396502.2798212535</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>444247.4732497231</v>
+        <v>387765.5808064773</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>444559.9932415325</v>
+        <v>388536.8444188564</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>437362.8935462725</v>
+        <v>398211.3462305419</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>440484.9026436595</v>
+        <v>397073.087004178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>446041.4594424898</v>
+        <v>429101.7210986375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>461486.6569750861</v>
+        <v>432469.4697161742</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>466477.934588932</v>
+        <v>448303.9919427193</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>496994.3955374624</v>
+        <v>437354.4217589935</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>524526.3815388922</v>
+        <v>448542.2814837394</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>527875.5574311782</v>
+        <v>498885.7522929358</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>537194.8593820727</v>
+        <v>512431.8376242368</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>539052.6630933651</v>
+        <v>514796.0599770799</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>526367.197358271</v>
+        <v>516596.7574657702</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>533382.691400225</v>
+        <v>524950.9536556052</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>508750.5442641985</v>
+        <v>544387.3453021406</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>534647.8325988568</v>
+        <v>556732.2557057845</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>514720.1651655955</v>
+        <v>558615.9235735869</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>522947.7563762591</v>
+        <v>554581.6163434699</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>490969.770869786</v>
+        <v>548414.8744550659</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>506278.7178672145</v>
+        <v>546332.9880744019</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>479158.6355807022</v>
+        <v>534804.809247799</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>505426.5474242786</v>
+        <v>528047.4999125946</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>477893.7942286772</v>
+        <v>514571.84215862</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>508392.375124356</v>
+        <v>524570.9829693987</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>491149.3100794117</v>
+        <v>498698.9108709086</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>510239.7239631688</v>
+        <v>521165.8857917707</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>501741.0982573224</v>
+        <v>493306.5492516792</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>539672.691364402</v>
+        <v>519064.4151139558</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>540512.118948284</v>
+        <v>520337.2315481296</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>535893.8826271894</v>
+        <v>530009.1032332478</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>538902.7369845955</v>
+        <v>526478.7182634021</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>543256.9750212083</v>
+        <v>531251.0576583636</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>534664.6768992809</v>
+        <v>530491.8590348582</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>538435.3379766295</v>
+        <v>531596.3765368889</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>529969.1054820286</v>
+        <v>524639.5734531337</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>539711.9641254831</v>
+        <v>536731.5948325902</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>533744.0075275613</v>
+        <v>535222.3336148266</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>537442.5991982729</v>
+        <v>534066.9087890481</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>529198.5555466604</v>
+        <v>528119.4066492342</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>533519.6016230801</v>
+        <v>525990.2091016093</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>520176.778556489</v>
+        <v>516213.3764406993</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>523486.2761240893</v>
+        <v>512416.0906467203</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>509579.2030860066</v>
+        <v>495653.9160830716</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>512233.9326291976</v>
+        <v>456548.239727513</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>481890.9953313753</v>
+        <v>425426.7044913179</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>478080.7396637234</v>
+        <v>428469.3106572242</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>467519.3372062078</v>
+        <v>410546.3734352636</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>455130.8004236657</v>
+        <v>407539.8391066904</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>454898.0530458926</v>
+        <v>419642.7069865079</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>452424.5577555526</v>
+        <v>426202.9662843434</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>458194.9115309558</v>
+        <v>424089.2384694846</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>463608.1279516322</v>
+        <v>435916.4358180992</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>482199.8911123422</v>
+        <v>431661.5843662371</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>494127.5869402554</v>
+        <v>485302.4815526095</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>504588.1701555509</v>
+        <v>495376.42347843</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>522508.5844370582</v>
+        <v>528245.9944067117</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>529655.5862958307</v>
+        <v>529954.3247623265</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>531579.1541067543</v>
+        <v>543554.8542255178</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>530209.2509878961</v>
+        <v>544509.259274378</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>527655.410389599</v>
+        <v>537521.0830033453</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>524032.7754245886</v>
+        <v>531607.8957478628</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>525076.5475664987</v>
+        <v>523442.606611755</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>528311.9569139928</v>
+        <v>522773.3092226153</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>536058.9535470756</v>
+        <v>527486.4895589612</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>540641.829975613</v>
+        <v>544463.3592106692</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>538860.1187752258</v>
+        <v>541541.8388439536</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>533466.0001825631</v>
+        <v>531287.7341025852</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>531906.3561190598</v>
+        <v>532530.6198939439</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>535935.9730719983</v>
+        <v>532888.9372279881</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>531539.9938904237</v>
+        <v>528600.0135017367</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>524999.2128613972</v>
+        <v>526725.8150906811</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>522657.8979530847</v>
+        <v>523416.3000564392</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>518095.5534245871</v>
+        <v>521092.6324211117</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>486827.7778848943</v>
+        <v>521286.7205292502</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>405066.3529227421</v>
+        <v>500539.5615704411</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>396162.2094091243</v>
+        <v>517366.7193634075</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>397701.7904359853</v>
+        <v>509385.9377079218</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>400833.6208502715</v>
+        <v>503298.6484993169</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>414474.6891490843</v>
+        <v>490935.251540904</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>417260.4011791211</v>
+        <v>471132.9271989164</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>427060.5074449789</v>
+        <v>445425.3897990549</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>446220.7580710996</v>
+        <v>442851.8608346501</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>444446.4939250526</v>
+        <v>453299.479131235</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>409768.9743972691</v>
+        <v>442862.9258790705</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>399544.622557354</v>
+        <v>472194.1923938963</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>397097.1428251314</v>
+        <v>504480.5351746775</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>400936.060324442</v>
+        <v>519754.1744828998</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>398347.980972807</v>
+        <v>529854.2588824658</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>405823.7530702672</v>
+        <v>522419.4530875139</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>442603.243106066</v>
+        <v>526815.4609594123</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>497646.3954144586</v>
+        <v>518479.3570680066</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>528165.0735498146</v>
+        <v>516470.9920315993</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>529845.6975015881</v>
+        <v>507742.8328447478</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>541024.66127892</v>
+        <v>516997.2264547673</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>532165.9662497573</v>
+        <v>507327.8344690131</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>538659.9140530159</v>
+        <v>516223.1857696926</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>529935.4370644141</v>
+        <v>520965.5606666433</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>530512.0810624151</v>
+        <v>532561.112641944</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>521056.3438484183</v>
+        <v>535845.9323683907</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>513397.3168072108</v>
+        <v>535560.6421563381</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>484906.3891337982</v>
+        <v>534186.5929669611</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>485179.6488963255</v>
+        <v>530765.1974711689</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>442485.4457983164</v>
+        <v>529959.1964362396</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>297879.8506201091</v>
+        <v>524711.6352360996</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>285754.0529630845</v>
+        <v>497221.0506854491</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>293361.1629243082</v>
+        <v>440495.3773419362</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>294391.8012786655</v>
+        <v>415077.4008224208</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>296174.5809932789</v>
+        <v>443501.6484437201</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>286010.913116129</v>
+        <v>422050.5736294065</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>286286.7687917053</v>
+        <v>436839.9397677897</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>284536.2908702321</v>
+        <v>398430.2288842734</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>289367.2570133062</v>
+        <v>396857.056315215</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>292900.2159552425</v>
+        <v>345586.8189014834</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>298937.9199092691</v>
+        <v>371172.9026536937</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>305872.9299980245</v>
+        <v>335957.4877564895</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>315119.6352672913</v>
+        <v>376111.303602516</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>324703.7686654793</v>
+        <v>354766.7226664915</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>332257.6982329797</v>
+        <v>408964.4701354768</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>332282.2323124422</v>
+        <v>413670.8115351545</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>331454.7851859714</v>
+        <v>453874.8456780775</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>412557.7861690486</v>
+        <v>414681.5663941164</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>453788.9153315244</v>
+        <v>429462.4033411137</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>449453.1052641503</v>
+        <v>378973.6925039343</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>498453.2245390729</v>
+        <v>423055.7600787887</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>540656.6975577723</v>
+        <v>446012.5718806923</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>545481.1655029489</v>
+        <v>481418.6183091917</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>544658.9600139029</v>
+        <v>482870.8630231076</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>544535.2757541275</v>
+        <v>522270.2727546813</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>544350.5147108338</v>
+        <v>542726.7964106634</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>542544.7139531825</v>
+        <v>543943.232933274</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>524149.5653028258</v>
+        <v>546011.8772524931</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>526365.1339289341</v>
+        <v>551511.3419047286</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>525510.6261536361</v>
+        <v>515822.9182570217</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>536570.2691456527</v>
+        <v>530575.5259649053</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>544847.9129038614</v>
+        <v>512686.9438820959</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>551739.3718162176</v>
+        <v>541844.1241020948</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>552056.0572903147</v>
+        <v>522533.699237051</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>555920.9178426159</v>
+        <v>550372.5310105549</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>556066.1579499203</v>
+        <v>535490.3332532403</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>560460.6753534921</v>
+        <v>558779.2623964516</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>560127.6211056618</v>
+        <v>541459.4657015105</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>564069.7148779351</v>
+        <v>557421.6464181097</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>562018.1033413598</v>
+        <v>541478.4659741609</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>565710.7414602458</v>
+        <v>556628.8327470254</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>560259.2485420433</v>
+        <v>543956.4110949013</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>562323.2844925104</v>
+        <v>561203.8102729893</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>557593.0588681891</v>
+        <v>550210.1289216045</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>558122.0965677573</v>
+        <v>564108.1541745028</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>553343.4915522045</v>
+        <v>560811.4987856416</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>554154.9526073971</v>
+        <v>564461.1829219033</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>550573.6384069946</v>
+        <v>562639.021548597</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>554469.6423847774</v>
+        <v>562609.9616147196</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>553611.0091666826</v>
+        <v>561160.4644233865</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>551693.1253206228</v>
+        <v>561972.2681672799</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>551860.2720104253</v>
+        <v>561217.5781124425</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>555240.3763956922</v>
+        <v>554781.8563583927</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>553468.8325762324</v>
+        <v>552985.2240820398</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>553170.6686940739</v>
+        <v>550886.4398857297</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>551904.9479562058</v>
+        <v>547191.1837855697</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>552796.7822876342</v>
+        <v>541915.5287765793</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>550946.7070313974</v>
+        <v>482717.3961656751</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>554375.2913302663</v>
+        <v>487875.8068738747</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>551859.5412773627</v>
+        <v>497510.2584567157</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>554731.8918086699</v>
+        <v>491410.6459128906</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>554576.553547401</v>
+        <v>486084.6671912351</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>565059.8853678736</v>
+        <v>519170.7731447188</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>566319.5974901727</v>
+        <v>461015.1324849394</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>564093.8939055097</v>
+        <v>447278.5234306066</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>561985.4202199676</v>
+        <v>439914.2731106508</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>560282.5271605771</v>
+        <v>430417.4052765816</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>558316.4665614145</v>
+        <v>432109.7615008364</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>554659.4978211322</v>
+        <v>419748.638526836</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>525382.2445928175</v>
+        <v>419199.7271262923</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>489507.9709777015</v>
+        <v>402807.2159380178</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>476636.9924893139</v>
+        <v>377250.0879107487</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>467013.9773474489</v>
+        <v>387079.8865864919</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>466086.3521016358</v>
+        <v>397647.5949327539</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>455317.0677977297</v>
+        <v>393961.3169474096</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>444361.6979571562</v>
+        <v>384599.2979890568</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>432857.4150654268</v>
+        <v>355104.6522408655</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>427015.154866786</v>
+        <v>350258.4208352549</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>420973.3382348336</v>
+        <v>349615.0891419565</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>415403.6255173142</v>
+        <v>342002.2024950101</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>391587.0427137386</v>
+        <v>335970.1123057679</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>368370.5326793828</v>
+        <v>333510.4889829309</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>383847.3057090195</v>
+        <v>318081.3683995568</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>365423.04510275</v>
+        <v>316029.1953502241</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>361642.6393204283</v>
+        <v>313334.2848641102</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>366709.4054155018</v>
+        <v>305557.7162786056</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>356495.5569433953</v>
+        <v>286380.1744582368</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>375192.7402566273</v>
+        <v>281995.3435826921</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>378198.1804305227</v>
+        <v>280427.1355209353</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>370795.1469793677</v>
+        <v>304353.6106867322</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>350129.8105241775</v>
+        <v>289552.1560355515</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>388903.1014133741</v>
+        <v>256169.7466146967</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>351106.2567405588</v>
+        <v>277581.8501612085</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>297109.3161507827</v>
+        <v>266748.5714442416</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>307079.3632518614</v>
+        <v>240793.3232214329</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>302017.3681833163</v>
+        <v>246132.0792724565</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>301134.8165985711</v>
+        <v>238653.3151904056</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>302661.4188976932</v>
+        <v>239313.3669389192</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>295244.7038827477</v>
+        <v>244668.2413343372</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>266864.9392426038</v>
+        <v>232308.2340099935</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>275398.0381883095</v>
+        <v>238611.798916341</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>272784.9308833914</v>
+        <v>243538.6443340033</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>273216.1716680968</v>
+        <v>224661.3355229589</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>266429.9398117783</v>
+        <v>229220.8425051284</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>263179.2706815033</v>
+        <v>220538.0299120625</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>262843.1899457911</v>
+        <v>206106.1760695707</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>244625.8378805567</v>
+        <v>200147.7947744386</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>265964.6685179104</v>
+        <v>245212.757653462</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>256063.1965170409</v>
+        <v>222143.5021736566</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>234882.2728663237</v>
+        <v>233379.3900372679</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>251367.9507708524</v>
+        <v>230083.1042043279</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>261177.5178220942</v>
+        <v>222350.3194898076</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>242158.317363494</v>
+        <v>240630.340435628</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>225454.3430119771</v>
+        <v>219672.8698043944</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>228007.6153544658</v>
+        <v>225337.1130274211</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>244843.2182936129</v>
+        <v>221712.8081025915</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>226055.3013943357</v>
+        <v>219510.19276067</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>220163.7072817789</v>
+        <v>207005.7832653563</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>232996.4701936392</v>
+        <v>204405.3443446104</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>266873.9996380389</v>
+        <v>215640.535566751</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>240473.1528382003</v>
+        <v>218914.3799734828</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>231858.6748337327</v>
+        <v>188351.2174281816</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>285114.7109086186</v>
+        <v>262894.9837132508</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>205418.3217266233</v>
+        <v>196813.6275079336</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>182567.642734126</v>
+        <v>162216.2824348105</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>161589.1222076447</v>
+        <v>145535.992639188</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>171234.1113547354</v>
+        <v>156355.8637457458</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>167747.0356660143</v>
+        <v>144366.5034692685</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>168684.2261522465</v>
+        <v>131362.7094097838</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>164135.9938190163</v>
+        <v>136992.5472892592</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>163974.720001511</v>
+        <v>191980.9533966466</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>175224.4453651552</v>
+        <v>216973.3860180012</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>186227.3201965546</v>
+        <v>218774.4283903156</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>166551.549626227</v>
+        <v>205631.8975101957</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>168505.8102919621</v>
+        <v>197370.3526772584</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>178218.0207994105</v>
+        <v>194091.5670723568</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>208443.1808075141</v>
+        <v>183764.2314992826</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>210644.5854508398</v>
+        <v>185018.4292316834</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>202577.9157434066</v>
+        <v>191845.6955940896</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>199933.2717447836</v>
+        <v>202192.9215190008</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>226810.3658722527</v>
+        <v>202054.0572049121</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>228362.5527758531</v>
+        <v>185183.0791780084</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>230718.1480406118</v>
+        <v>186783.0347481408</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>245604.7643258453</v>
+        <v>205675.2537217782</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>260773.5187459929</v>
+        <v>205197.2693720339</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>261665.1467689449</v>
+        <v>188096.7879280434</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>261580.0862669017</v>
+        <v>197712.1851182191</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>250999.3138444212</v>
+        <v>205846.6298569451</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>244554.0198826567</v>
+        <v>193146.4469808351</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>236026.5427814918</v>
+        <v>189611.9013551175</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>235227.6899063229</v>
+        <v>189886.6885758599</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>242072.6961385794</v>
+        <v>203197.662392357</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>230888.5671605676</v>
+        <v>205902.5013334469</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>244539.7486621678</v>
+        <v>201744.4535459692</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>243965.5629186468</v>
+        <v>227707.6275838373</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>241494.6608312786</v>
+        <v>231648.7201568103</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>235428.7560063329</v>
+        <v>227096.2058528943</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>242532.7795468528</v>
+        <v>225672.2409166923</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>240796.7506170714</v>
+        <v>226115.7862155994</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>239018.6926259578</v>
+        <v>226239.6938420772</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>237930.3302341851</v>
+        <v>224122.4133319113</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>238435.5986374509</v>
+        <v>235230.935681792</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>245977.2615329607</v>
+        <v>241415.1175126125</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>243835.5702430821</v>
+        <v>216384.532915371</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>252422.8473456219</v>
+        <v>215141.7796929088</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>250177.4292152035</v>
+        <v>222330.3993254909</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>248087.2962627854</v>
+        <v>237382.8674518403</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>248587.1035729525</v>
+        <v>223533.6943038976</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>254913.2805836123</v>
+        <v>234317.0888776747</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>255343.9873004061</v>
+        <v>269471.0277617901</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>253720.9376833832</v>
+        <v>323573.618147628</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>249554.7889639829</v>
+        <v>345557.5412674554</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>249536.8364645979</v>
+        <v>356056.0980288932</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>259563.2767943297</v>
+        <v>401123.9020825</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>254286.751316751</v>
+        <v>473824.0697004229</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>253085.3234182524</v>
+        <v>476696.6224519839</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>258075.1818540634</v>
+        <v>473358.1222484277</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>257368.8779938771</v>
+        <v>447257.8227108784</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>260653.5052830584</v>
+        <v>406430.5431489373</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>282541.7469800843</v>
+        <v>380538.3108543788</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>277683.2902953036</v>
+        <v>364034.6430967531</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>270015.8951625173</v>
+        <v>364273.5433745079</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>271385.4276051783</v>
+        <v>376452.7665057854</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>267656.6755802445</v>
+        <v>354578.123750229</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>256179.6958168345</v>
+        <v>333668.6852395752</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>246692.2452712065</v>
+        <v>338069.0200306206</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>259150.9268678124</v>
+        <v>349461.0636752281</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>271911.9880256436</v>
+        <v>308308.3860389498</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>281045.8928238701</v>
+        <v>303144.752217988</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>294498.3111799621</v>
+        <v>292179.4976650329</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>298989.5713566478</v>
+        <v>281515.6622487119</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>305733.6815504045</v>
+        <v>299099.8264531501</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>303999.2028250692</v>
+        <v>285495.608722641</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>303275.6368398465</v>
+        <v>275437.6821166477</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>302110.9429327972</v>
+        <v>297738.7653492711</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>300696.1052109291</v>
+        <v>310836.430885767</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>308476.7299563893</v>
+        <v>290448.7289845574</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>318104.2365573797</v>
+        <v>281933.6031739255</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>318696.9982683592</v>
+        <v>296287.6064205815</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>302909.3656435022</v>
+        <v>274371.1946191299</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>293676.5727032871</v>
+        <v>279794.6855621854</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>285532.0328582446</v>
+        <v>306686.2586087774</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>280492.7405952699</v>
+        <v>320326.5297883648</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>292888.6986121659</v>
+        <v>343893.0844580791</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>297070.0280721372</v>
+        <v>324847.006998055</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>291722.7955544705</v>
+        <v>321225.9263607701</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>291027.4328149252</v>
+        <v>275155.5668425031</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>292844.3559278612</v>
+        <v>284615.0860610569</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>286517.7030206976</v>
+        <v>272903.5977200641</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>281454.8863411527</v>
+        <v>286440.1770464041</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>281399.2094630105</v>
+        <v>293777.4307331408</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>283472.072597735</v>
+        <v>273621.0212620097</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>300900.2620269175</v>
+        <v>314569.0908301497</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>295473.5907952283</v>
+        <v>307271.9202109417</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>281194.6201276835</v>
+        <v>294784.1291023446</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>336096.818058164</v>
+        <v>364454.2763718974</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>315407.9085477557</v>
+        <v>347753.7985092049</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>305877.4174471658</v>
+        <v>370984.7781758134</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>288464.7347705365</v>
+        <v>373802.7407129188</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>302987.9634261975</v>
+        <v>365927.5544563635</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>302250.6503944082</v>
+        <v>395397.7132177576</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>306798.3258646973</v>
+        <v>385346.4914202639</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>318452.1879469112</v>
+        <v>389945.8276777565</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>332381.2415153486</v>
+        <v>388463.9666420609</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>345082.4061371376</v>
+        <v>371117.5275291717</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>339563.4122779898</v>
+        <v>350470.9854676037</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>387601.4476505883</v>
+        <v>368375.5007395721</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>336194.4749254216</v>
+        <v>396483.7518560708</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>339973.4394078135</v>
+        <v>387626.3936459015</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>339168.034376518</v>
+        <v>381853.1505302964</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>318254.6716467504</v>
+        <v>371318.6576447553</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>331538.6601967295</v>
+        <v>391905.1021757911</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>309170.009367687</v>
+        <v>366756.3495034396</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>307736.1988751917</v>
+        <v>356040.5377463462</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>311179.4517080683</v>
+        <v>343882.724610499</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>309252.9467533618</v>
+        <v>367274.4732876204</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>323334.8937638616</v>
+        <v>353412.9307595509</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>339841.2606832183</v>
+        <v>346600.1676005318</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>323707.8336472204</v>
+        <v>343758.3880083481</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>320371.7124595699</v>
+        <v>350533.0122810372</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>325018.6821592067</v>
+        <v>358406.4018153365</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>329581.9840200603</v>
+        <v>349196.3693433111</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>319355.1088316084</v>
+        <v>354185.7494275362</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>326163.506743098</v>
+        <v>342030.4580910257</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>322422.5754118101</v>
+        <v>338639.0759760148</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>345537.1195105155</v>
+        <v>443489.5945318193</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>380650.3941346654</v>
+        <v>505332.0284942283</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>392878.0163311537</v>
+        <v>508017.9725682308</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>387088.8853964309</v>
+        <v>497377.013405301</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>398365.3112546032</v>
+        <v>481963.0954907608</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>400024.2550040941</v>
+        <v>476425.2482696669</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>378467.5779449557</v>
+        <v>472390.6659437083</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>377935.986958196</v>
+        <v>469823.7389290596</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>368510.1531125101</v>
+        <v>469586.7718737635</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>386965.2113606604</v>
+        <v>464031.1804158327</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>361976.2112282924</v>
+        <v>457166.8360043269</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>383001.7046272596</v>
+        <v>450968.7337140432</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>391289.5655104964</v>
+        <v>446742.2140561464</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>370578.441907911</v>
+        <v>431976.3499347799</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>383461.0876747635</v>
+        <v>427784.1003262679</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>367667.5980184737</v>
+        <v>421859.2957558178</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>369110.9758670436</v>
+        <v>402330.343019486</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>382636.4045364637</v>
+        <v>404782.4107742888</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>369427.9838778861</v>
+        <v>406514.6968390623</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>378328.5572822599</v>
+        <v>423913.9737165815</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>369540.8820328919</v>
+        <v>419309.2802302883</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>379796.8229012269</v>
+        <v>412171.2052456638</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>374025.2434952913</v>
+        <v>416072.2471842131</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>370042.0510274152</v>
+        <v>439884.7557728352</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>368936.4953171929</v>
+        <v>449091.7080554017</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>373506.6597887228</v>
+        <v>447966.4438365693</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>366441.9815940965</v>
+        <v>439498.945875629</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>368505.082766913</v>
+        <v>449007.9023365795</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>411865.4981839966</v>
+        <v>450566.7867620571</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>393172.7807629732</v>
+        <v>467221.0166447476</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>397767.4327014405</v>
+        <v>472510.0075726665</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>387045.934059446</v>
+        <v>433503.684964562</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>365216.0013503928</v>
+        <v>418269.0092967678</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>388468.6267323582</v>
+        <v>417032.5271841882</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>373175.7931300722</v>
+        <v>407632.4857145285</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>382613.4095517045</v>
+        <v>397729.7461467581</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>393614.8309830715</v>
+        <v>401825.3335541065</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>372317.6388520767</v>
+        <v>393556.385156513</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>394016.9750544861</v>
+        <v>395751.8988435666</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>395734.3494769279</v>
+        <v>394988.4076947268</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>382263.3400967763</v>
+        <v>414365.5393714933</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>397066.4466407812</v>
+        <v>411877.8154290332</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>400862.4206585762</v>
+        <v>408356.2163068446</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>409703.2010197376</v>
+        <v>411700.0590265539</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>434711.8554375672</v>
+        <v>466039.9984033848</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>489239.1879082875</v>
+        <v>521489.3442036695</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>475974.6253215151</v>
+        <v>544302.6630935506</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>472687.5187226927</v>
+        <v>547087.9462685052</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>479229.7905495719</v>
+        <v>550100.4781176529</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>480202.4150069567</v>
+        <v>555086.2398144344</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>483694.3468690647</v>
+        <v>549860.5303812298</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>476942.9830414539</v>
+        <v>548597.1130500428</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>492047.8589728035</v>
+        <v>546711.9842756017</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>489472.4958699342</v>
+        <v>544518.4154045598</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>494114.9879324135</v>
+        <v>532151.5885680678</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>493017.280741718</v>
+        <v>524896.1157347767</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>475246.0727441008</v>
+        <v>522005.2689099797</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>483444.6527213976</v>
+        <v>520113.4426485412</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>474141.9165483341</v>
+        <v>515476.7576611629</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>459480.4856653117</v>
+        <v>503501.4961521502</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>390885.7773189184</v>
+        <v>448587.9312799812</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>403327.5977373053</v>
+        <v>438946.5376957869</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>381905.7233556886</v>
+        <v>436499.1905154613</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>381454.0119045435</v>
+        <v>437737.0992678548</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>381192.3803343229</v>
+        <v>431167.511276189</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>397540.2615726577</v>
+        <v>418520.257958972</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>409018.3245552126</v>
+        <v>418483.3502271598</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>403464.3606094843</v>
+        <v>409230.8222760251</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>422427.1573490408</v>
+        <v>416446.81949505</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>409588.2031330208</v>
+        <v>404745.5650452058</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>422231.2745490266</v>
+        <v>411167.8285871621</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>395246.6208600524</v>
+        <v>392028.1976239638</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>437039.6164088291</v>
+        <v>382313.5610768723</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>429359.2078682693</v>
+        <v>381747.9853627558</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>406811.1012156508</v>
+        <v>387703.4062377106</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>413362.37671723</v>
+        <v>400828.9397568555</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>398862.7340978126</v>
+        <v>396374.4747941509</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>424504.6395245179</v>
+        <v>394809.2967964589</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>452399.0208416993</v>
+        <v>406029.8998692427</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>461591.5824257499</v>
+        <v>403207.6768226805</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>467333.7061925153</v>
+        <v>400378.1918235346</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>448695.6967399959</v>
+        <v>407615.9049104499</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>449017.491331096</v>
+        <v>403115.0816241303</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>458726.0879252797</v>
+        <v>405237.6090435351</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>478984.1257078621</v>
+        <v>410673.9752078675</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>486809.8132472268</v>
+        <v>419203.5847721364</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>491293.4217893064</v>
+        <v>425667.5845940814</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>485521.1382863526</v>
+        <v>414202.8319759291</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>492458.3838312382</v>
+        <v>419707.4292692328</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>478518.8264545639</v>
+        <v>430890.2992039638</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>455896.7416144034</v>
+        <v>424471.4572814996</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>392373.4151971706</v>
+        <v>362943.9782821947</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>372482.0694494311</v>
+        <v>349091.5374247077</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>350439.1848272504</v>
+        <v>345210.0130286437</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>326253.9133973675</v>
+        <v>326995.8021694035</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>340565.2161047062</v>
+        <v>324636.1021677449</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>329937.0990715149</v>
+        <v>329134.0728326151</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>327252.1521163542</v>
+        <v>303937.9014910143</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>331259.530133431</v>
+        <v>334399.1890892575</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>326640.5497312208</v>
+        <v>319007.2755005871</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>338342.8993299803</v>
+        <v>316600.3402439395</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>323944.3850254522</v>
+        <v>311139.4211833801</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>319645.0584546221</v>
+        <v>308613.9728180073</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>319159.9143310866</v>
+        <v>301979.7997956692</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>301429.080181515</v>
+        <v>298668.4659653369</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>282748.3781241335</v>
+        <v>283070.0985459046</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>273545.0526966828</v>
+        <v>288139.5005380243</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>298431.3936886988</v>
+        <v>284617.0573627526</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>303045.0858696554</v>
+        <v>305557.7563987544</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>338955.1185522607</v>
+        <v>320095.8084555616</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>349412.5095408059</v>
+        <v>349305.3322495566</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>362808.0697328624</v>
+        <v>368074.6661681762</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>352813.2309659394</v>
+        <v>393666.4933225971</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>361176.1837784168</v>
+        <v>425639.5950208451</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>375616.0592655824</v>
+        <v>468820.5998402584</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>411890.0614623062</v>
+        <v>484528.8888015618</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>470263.8098243691</v>
+        <v>525567.7379354247</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>519478.1867737325</v>
+        <v>521365.9180848241</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>538300.1380332636</v>
+        <v>519755.4418484594</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>543792.3288754214</v>
+        <v>507375.6420442858</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>538415.1535689165</v>
+        <v>430741.9309470183</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>541029.3179814629</v>
+        <v>438947.2091030666</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>516250.3985873528</v>
+        <v>497414.7133255778</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>488965.6155280303</v>
+        <v>472978.6744256086</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>387069.942267338</v>
+        <v>468256.9892393199</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>449479.8270682307</v>
+        <v>375793.760889034</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>353829.7008587696</v>
+        <v>367320.0577575373</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>436460.6169079392</v>
+        <v>293612.1237349322</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>355665.7303449319</v>
+        <v>318541.7477953919</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>447739.086087664</v>
+        <v>254096.6048841341</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>398834.1810964027</v>
+        <v>299430.5320404867</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>477765.2848069796</v>
+        <v>257276.9484515184</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>443183.7944357114</v>
+        <v>301436.1868582601</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>526120.2424157854</v>
+        <v>250029.0636158573</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>530251.8140805676</v>
+        <v>318370.1360713805</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>551978.3342947597</v>
+        <v>316209.0193541656</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>555799.7025019925</v>
+        <v>372603.7069480466</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>560559.4053290014</v>
+        <v>345715.2454724775</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>558116.8982905818</v>
+        <v>412043.2947903933</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>546984.9823355839</v>
+        <v>397528.4970717755</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>511873.2437828952</v>
+        <v>507188.042710861</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>561958.1815496115</v>
+        <v>540279.4756449769</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>535955.9650041906</v>
+        <v>559665.645811933</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>556004.5590348126</v>
+        <v>558857.5031249835</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>559013.8567569924</v>
+        <v>559478.7182171246</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>553148.2014223266</v>
+        <v>561177.9353821038</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>559441.6053213781</v>
+        <v>563909.4038287826</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>556294.990494763</v>
+        <v>564020.5896558125</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>526677.5079463187</v>
+        <v>563995.7771560468</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>553186.6710002574</v>
+        <v>563113.6002126544</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>545218.97560981</v>
+        <v>562964.1699754631</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>570247.0111781448</v>
+        <v>564883.4722852734</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>556421.8083832751</v>
+        <v>566323.3031069089</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>573275.8276574169</v>
+        <v>566427.194253071</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>562793.1537441157</v>
+        <v>566864.9012088749</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>572893.0436683416</v>
+        <v>567069.4808004891</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>567483.2626607763</v>
+        <v>565334.7802793861</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>575463.6222104308</v>
+        <v>563627.8770862173</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>571124.0693494171</v>
+        <v>564802.9263565751</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>574131.0160051375</v>
+        <v>567644.1275954338</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>571152.9622238362</v>
+        <v>574138.5981024613</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>574685.3178650773</v>
+        <v>578633.7008455803</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>570959.3100348568</v>
+        <v>577781.8246259447</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>576404.2083945947</v>
+        <v>575349.2847586517</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>573393.222512656</v>
+        <v>567486.7484097496</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>573045.4997235837</v>
+        <v>534252.267687094</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>569139.2326802966</v>
+        <v>566196.1202858965</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>567280.5764573602</v>
+        <v>546097.485811049</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>563143.6818264101</v>
+        <v>570586.7218503526</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>564905.8887202776</v>
+        <v>552677.2210312028</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>556851.3936693089</v>
+        <v>570822.449631134</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>559793.1700029674</v>
+        <v>551455.7402495864</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>543711.7502399686</v>
+        <v>571925.2002387029</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>541381.2839798282</v>
+        <v>557650.2393976446</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>528444.8776185974</v>
+        <v>568973.7895805951</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>534105.8107152145</v>
+        <v>559329.5570202732</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>516621.229920018</v>
+        <v>558995.5992494363</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>496146.1451277395</v>
+        <v>550181.3203522291</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>504877.7382635484</v>
+        <v>549982.1555108551</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>514503.1790144491</v>
+        <v>538706.3467806905</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>523855.9121692341</v>
+        <v>521206.3550991693</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>489847.6091876547</v>
+        <v>529225.6871250905</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>518308.9160819229</v>
+        <v>522455.2523863647</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>490767.9081830948</v>
+        <v>503958.4235668162</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>487234.1415405202</v>
+        <v>481094.4012820948</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>449931.3435567647</v>
+        <v>493559.1336809031</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>466421.5679515155</v>
+        <v>498547.0091821518</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>458444.9501705957</v>
+        <v>512361.3941778663</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>428666.5008380552</v>
+        <v>514051.476181587</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>412908.7564138541</v>
+        <v>498809.7309494896</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>394393.9128469283</v>
+        <v>465321.8239115576</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>365400.8424020588</v>
+        <v>445762.0722238122</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>367068.5648050191</v>
+        <v>428595.0617563188</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>359795.564648793</v>
+        <v>395303.6941279451</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>370270.0485862622</v>
+        <v>407818.4668741935</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>374060.1984563664</v>
+        <v>436054.0446644035</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>361115.5802587636</v>
+        <v>403322.2953340089</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>355524.8972804429</v>
+        <v>387605.2972461623</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>359714.9174475048</v>
+        <v>389741.7367466678</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>345687.0242972857</v>
+        <v>376780.5213392782</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>328212.5423063144</v>
+        <v>387698.9313349673</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>337683.1193109847</v>
+        <v>384487.0941696225</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>314389.5056048719</v>
+        <v>368114.6188343206</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>340325.3855169138</v>
+        <v>337749.3810561678</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>325021.366454173</v>
+        <v>332279.4440311745</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>324450.5893635313</v>
+        <v>372981.0447259736</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>339782.5378968454</v>
+        <v>367086.0734323523</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>296960.0444293483</v>
+        <v>338101.6985364179</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>314840.1686488915</v>
+        <v>339441.4024651559</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>308552.9485829204</v>
+        <v>358678.5953636586</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>314693.4709757318</v>
+        <v>345990.1582719698</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>290495.5731065709</v>
+        <v>328194.7115183762</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>280977.3294249063</v>
+        <v>314389.2282863808</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>254372.9230540551</v>
+        <v>290216.2368112803</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>250519.9169167801</v>
+        <v>297049.3457013715</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>272994.1854609571</v>
+        <v>292407.8682007074</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>244630.6399006732</v>
+        <v>287812.0231390869</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>244162.6364909694</v>
+        <v>278816.8758010722</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>253917.790732495</v>
+        <v>269509.3535127428</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>232085.1819418929</v>
+        <v>272437.6080567217</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>243608.2710445423</v>
+        <v>281023.9457840458</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>227516.33407422</v>
+        <v>273758.6904369235</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>238966.8848744542</v>
+        <v>273774.3401354709</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>221093.2812159641</v>
+        <v>288450.2038890391</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>224701.6075460254</v>
+        <v>255079.1086927702</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>229449.3002524448</v>
+        <v>269847.5992548064</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>222086.20052363</v>
+        <v>249283.7043341005</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>239623.7326722695</v>
+        <v>271717.9637660778</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>232451.1964028507</v>
+        <v>264850.7324356074</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>241447.2898416721</v>
+        <v>261334.8958524206</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>234330.1432634227</v>
+        <v>251164.1156178677</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>220008.6013146326</v>
+        <v>256187.5488076435</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>213698.1468435682</v>
+        <v>269906.1886283078</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>265562.5033078099</v>
+        <v>255182.8919195828</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>265420.7363638561</v>
+        <v>248180.6764684186</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>318975.2772068953</v>
+        <v>236446.3439345525</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>309252.5447756767</v>
+        <v>232090.2049405094</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>263000.8278055794</v>
+        <v>227739.6959914132</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>268025.5598063248</v>
+        <v>231281.2818926889</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>274473.6851183688</v>
+        <v>241729.4107024163</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>267297.8014488082</v>
+        <v>219463.2504756669</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>277793.818136887</v>
+        <v>218289.5795993246</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>302232.6948296896</v>
+        <v>293669.8567353183</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>234657.0249352786</v>
+        <v>179466.6660239944</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>212633.9375314821</v>
+        <v>173929.1923613194</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>190854.8915209639</v>
+        <v>154612.1123507235</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>169307.1289807839</v>
+        <v>153522.0223145983</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>176385.2057811352</v>
+        <v>171060.1651140208</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>188656.3540659573</v>
+        <v>153693.6291300733</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>185281.231894714</v>
+        <v>147373.5973244114</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>172865.7069308928</v>
+        <v>157819.7529579473</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>179042.992411817</v>
+        <v>140391.3824687658</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>170859.4623333967</v>
+        <v>138340.8199863713</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>157419.7135763445</v>
+        <v>149735.6895118778</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>164323.5761281549</v>
+        <v>205259.9001052564</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>152537.8537304288</v>
+        <v>183112.0565786254</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>158333.6066557489</v>
+        <v>175139.2710710033</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>174355.4192780278</v>
+        <v>175973.0160972117</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>170559.5988823127</v>
+        <v>181959.2918926004</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>172624.9529648211</v>
+        <v>201980.3630528582</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>177175.2442393142</v>
+        <v>203111.7069040741</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>188547.3954152633</v>
+        <v>200294.1306212288</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>169723.2143132939</v>
+        <v>210403.3873447239</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>176396.5114258975</v>
+        <v>222217.7712963962</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>191084.7810104469</v>
+        <v>206562.4793992054</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>208597.4929135808</v>
+        <v>209031.966663505</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>196927.0217055109</v>
+        <v>200363.5119674447</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>214594.5352885821</v>
+        <v>208951.9779478621</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>205363.8053787897</v>
+        <v>197803.4541867635</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>237650.6228887829</v>
+        <v>212709.2717303268</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>238331.0234190191</v>
+        <v>209534.1601239548</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>211157.2749410126</v>
+        <v>220973.3484776163</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>216965.7366404683</v>
+        <v>232866.4906267223</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>209539.4365319909</v>
+        <v>210505.8584735721</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>224186.8869403501</v>
+        <v>228437.7356441595</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>226090.8566260085</v>
+        <v>270193.8008348668</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>231484.1026340323</v>
+        <v>250979.9648870171</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>211964.3362178751</v>
+        <v>229076.7402833642</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>208747.1460034118</v>
+        <v>228829.2679225871</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>208887.221466367</v>
+        <v>247163.3932950484</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>224298.927829139</v>
+        <v>259911.0773518367</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>233672.6887031437</v>
+        <v>255838.3805538487</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>230196.6428229656</v>
+        <v>258257.7315264326</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>229350.2748998417</v>
+        <v>247293.6528792517</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>227211.0595735464</v>
+        <v>248817.411249607</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>218970.1001630377</v>
+        <v>236850.7805313464</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>258219.637945521</v>
+        <v>223361.3857812005</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>223146.9539763813</v>
+        <v>213171.9821962545</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>229999.5599374316</v>
+        <v>223917.621220852</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>251792.678781051</v>
+        <v>229908.6666740238</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>228075.8118283146</v>
+        <v>243346.7796743317</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>233082.0779443697</v>
+        <v>232792.7824587496</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>242819.2835318112</v>
+        <v>222772.8346556257</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>239962.0827883935</v>
+        <v>214966.3059138841</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>248090.6619470157</v>
+        <v>218724.8051701027</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>261832.6842601827</v>
+        <v>214101.4218430801</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>275983.3743377156</v>
+        <v>209735.4898921624</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>253753.9619365415</v>
+        <v>211349.5163428045</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>249359.0289852631</v>
+        <v>219789.007389305</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>258173.3365969262</v>
+        <v>217299.0125392569</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>238960.1170573412</v>
+        <v>227687.1221888039</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>260702.2277810676</v>
+        <v>238665.2177413964</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>275180.1657711007</v>
+        <v>240729.5654151752</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>279586.5911207723</v>
+        <v>242911.8895918547</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>324869.7364122954</v>
+        <v>239281.7150033117</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>315431.1067749716</v>
+        <v>223939.6614990293</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>300570.0738664227</v>
+        <v>222274.6891218152</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>305766.0083027535</v>
+        <v>223351.3364458932</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>309145.5841982376</v>
+        <v>220731.8821354312</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>292997.5772258794</v>
+        <v>214154.0802880125</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>297378.0530339487</v>
+        <v>217079.5054447292</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>272578.3681731963</v>
+        <v>211362.09585173</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>272607.6982864974</v>
+        <v>211147.0420280916</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>272327.2993401478</v>
+        <v>218068.0582998789</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>275673.952229606</v>
+        <v>222599.1609560514</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>264337.9306457422</v>
+        <v>220966.7767576196</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>280876.5432250474</v>
+        <v>231829.2931835644</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>281664.3158753632</v>
+        <v>237902.9350353215</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>333624.2730422606</v>
+        <v>236050.5750927509</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>386706.047465379</v>
+        <v>235542.4278718731</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>393552.8413285043</v>
+        <v>241695.3475532684</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>384133.4753737431</v>
+        <v>247113.9163400925</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>364342.5585652227</v>
+        <v>260221.7985687139</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>341253.8880249277</v>
+        <v>238429.3342054907</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>325610.0105190024</v>
+        <v>237325.1551456989</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>328361.8646248566</v>
+        <v>242753.6707408832</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>338098.469793449</v>
+        <v>255733.884461145</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>355133.8845057593</v>
+        <v>257734.5827266328</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>338937.2123427636</v>
+        <v>246302.2021956632</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>330581.8724800636</v>
+        <v>244429.6112552616</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>327482.2193373289</v>
+        <v>232727.6801780009</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>333704.6181693426</v>
+        <v>233383.9894501471</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>319520.8213739117</v>
+        <v>235093.2317368508</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>352220.4024899057</v>
+        <v>230087.1918029831</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>382377.943019115</v>
+        <v>233663.6973942157</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>437490.9086080666</v>
+        <v>261519.6223283127</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>398396.0415061218</v>
+        <v>285257.6942560342</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>439973.5850110521</v>
+        <v>275876.5422038591</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>410445.9254659834</v>
+        <v>275586.2411232632</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>391754.7211901625</v>
+        <v>308639.1062462978</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>425198.9417955375</v>
+        <v>327877.219541326</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>383769.3480329875</v>
+        <v>316759.7868124638</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>383850.130636772</v>
+        <v>315165.1005978889</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>411021.6743639644</v>
+        <v>373866.9634150091</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>393413.1541019067</v>
+        <v>362188.1076320395</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>454064.6662197747</v>
+        <v>371452.7268108272</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>395697.4210355763</v>
+        <v>414980.8190313583</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>446558.0556154283</v>
+        <v>347571.3442215952</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>433694.9570428699</v>
+        <v>361238.2240230836</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>425322.8191024568</v>
+        <v>362545.3690511493</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>425781.6633581821</v>
+        <v>345920.8525982847</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>444765.0928937757</v>
+        <v>340360.3224563887</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>420224.728433998</v>
+        <v>350059.6470525031</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>406312.4787140848</v>
+        <v>351052.2707636631</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>406695.0190683423</v>
+        <v>358982.5986700985</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>394606.0166763391</v>
+        <v>355596.5125647554</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>384464.9352993282</v>
+        <v>346941.6023388709</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>371072.0365826152</v>
+        <v>343622.0160668151</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>390949.2109379738</v>
+        <v>338505.235841485</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>354498.5881438556</v>
+        <v>340713.6237308466</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>363583.5417077541</v>
+        <v>331351.215677629</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>377337.0622365887</v>
+        <v>331841.1526764896</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>363549.0502104269</v>
+        <v>334388.4070782159</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>364634.0357521196</v>
+        <v>340481.4167265127</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6216,2927 +6216,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>365081.9261813259</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>353470.2439683496</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>392027.0543333415</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>431967.1868565254</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>424558.0563523118</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>428881.3073937265</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>430202.7634953777</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>416191.2448100704</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>427111.053607487</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>440527.5394617034</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>438948.8749531648</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>453861.0832133435</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>449830.0394533291</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>446127.511151005</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>445701.1615941296</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>446048.3013211454</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>435408.4987858009</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>426787.6421244089</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>419416.0261866236</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>417543.2985266621</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>412497.844623626</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>395802.3667822073</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>397623.4958402142</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>406581.15781569</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>420241.6105598872</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>437769.1670603972</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>448505.4927342248</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>434391.1162311082</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>446119.7197567155</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>446609.7584972162</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>439136.4158299289</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>453208.218405364</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>452447.0851583719</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>464387.0650701871</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>475449.5182912947</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>459305.4458587263</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>467238.1567757187</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>469112.727263808</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>467152.3817250643</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>478334.4863679335</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>475286.1024319474</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>463612.0713573067</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>466496.3904152317</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>478281.0338439383</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>469696.6600722759</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>488069.1064995222</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>509884.4306081634</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>516913.6394153343</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>519756.9372370382</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>516813.774667458</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>517071.3796457896</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>519175.4620452789</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>516235.4804048206</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>514155.6832765308</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>521405.8323192128</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>518836.0985053867</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>520342.5404645582</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>521434.6922891116</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>520548.5645829778</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>519902.7532396201</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>510092.7251559701</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>449884.2104287652</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>435277.3804738194</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>404002.545745352</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>398118.3514908646</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>397449.9400408172</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>409007.6870405793</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>417636.5762976111</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>440985.2949569068</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>482960.2509848096</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>496820.5527797067</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>483823.2954859358</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>472446.4492418536</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>488174.7226637467</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>496218.1830584799</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>506155.0874289953</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>492500.386510927</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>494690.4448414674</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>470291.0976025735</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>471895.4906788559</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>460599.0067931435</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>445861.1454701533</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>444678.8447211178</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>435585.0904713027</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>436609.8503544637</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>439064.6692278328</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>467428.072390746</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>479586.8651138847</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>510314.6084123187</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>530573.3376079969</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>543897.472798799</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>540672.2387981589</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>512233.5128110639</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>529344.4936253914</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>512781.9088544209</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>514406.9975398222</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>490421.9413329113</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>511256.6158994843</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>484289.6247386718</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>529745.7261301863</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>532101.435829208</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>538780.6300879589</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>538611.8381167677</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>540262.244508913</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>530333.6481234356</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>528555.2719629519</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>509958.6795020733</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>506166.1305791344</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>492033.9439718591</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>506504.7659385127</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>459322.6632964094</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>478518.9251408387</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>467312.2949647275</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>445203.2311611162</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>425141.1234563373</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>435358.4228410664</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>426505.5075577801</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>451043.8396910509</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>453181.8587988285</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>463691.6230314366</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>430740.181027282</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>265854.9460299743</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>256294.6770230558</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>271477.0033664823</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>311860.6109222729</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>381364.1535490234</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>450079.7810597899</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>513013.5581666058</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>536573.3283985605</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>544618.0487010527</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>546068.6516383805</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>548044.5124078391</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>549783.0655299685</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>551838.5683026352</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>553990.0349882509</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>549449.4844335029</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>524675.3732162022</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>489822.4012204505</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>442693.3756724493</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>410002.3908161722</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>384803.5113603881</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>431837.02813588</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>502044.4400357064</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>520656.0714514405</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>521309.7128633152</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>515959.9889838264</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>518183.3832494137</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>539752.8430189368</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>557043.6604950402</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>559239.9574871865</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>559928.4795371478</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>559514.8725933908</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>562473.3193876969</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>562822.3700518791</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>566000.4441128953</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>545715.1072942249</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>567590.5445911398</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>550435.2438768219</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>563933.1108258731</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>563617.4116673118</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>561941.5934521887</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>562214.2139933708</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>564155.4603900617</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>564522.3432171098</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>565401.6767300364</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>567371.233935157</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>562884.7492896538</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>565512.7756271119</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>561931.4933687625</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>564603.9909976732</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>559309.9284399865</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>562369.3970760884</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>559073.9410867525</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>558552.4522122844</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>552109.9034949791</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>553583.8183885694</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>542807.6429350429</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>508799.2139770187</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>507341.9208916397</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>494633.6974122147</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>496308.0457358184</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>513985.5252237077</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>461821.78247134</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>488447.742913454</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>473767.1568758485</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>482333.6506485164</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>458942.4218243288</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>439068.6532413535</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>451899.8607728679</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>484810.4296876042</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>490556.008092184</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>482696.1421429722</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>477490.0342231929</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>446010.4183388729</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>426970.1781783281</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>429808.6444871572</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>410695.9480244223</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>409682.4943789669</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>401538.4783268824</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>370639.4124981459</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>351747.9228425262</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>350107.9861280894</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>369777.103646428</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>331929.9508801263</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>322781.9238425669</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>306609.9778639798</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>306282.0330827866</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>287999.1737854239</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>269061.956574539</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>292309.7255017456</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>284455.9577243332</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>270863.1900269835</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>271338.5859396569</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>272102.0566681391</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>253354.3075182191</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>245614.8679154726</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>240140.4836700817</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>240428.0731153577</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>221591.8049952996</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>238877.0160447414</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="B951" t="n">
-        <v>236504.2228831915</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-      <c r="B952" t="n">
-        <v>235102.7723239284</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B953" t="n">
-        <v>241976.5292932628</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-      <c r="B954" t="n">
-        <v>234122.2992991304</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="B955" t="n">
-        <v>203814.5789116762</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="B956" t="n">
-        <v>196880.8773136329</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B957" t="n">
-        <v>204951.1095369035</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-      <c r="B958" t="n">
-        <v>215206.9300312492</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>209957.0900412987</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>224960.6163359308</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>217964.8541199168</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>230864.4426069992</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>238248.7321464448</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>214904.3651519174</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>228262.3176872269</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>210683.5353367384</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>223884.2426289637</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>218527.7146953199</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>219445.9482124528</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>229035.150569441</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>256106.3359128938</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>307054.925142988</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>271576.9480663172</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>331225.4578731536</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="B975" t="n">
-        <v>261488.3455498364</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>245317.7706763129</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>219201.3068165453</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>221950.8080766362</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>212304.2713516252</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>196648.6786679683</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>209610.353350411</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>210647.7922234925</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>209540.4780916161</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>209337.6950882809</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>204662.8373094653</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>208721.1342379928</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>211946.4918180286</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>185491.5118733277</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>210319.463406948</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>204679.3848581121</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>217944.9395273361</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>206779.3821491203</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>199544.5900038953</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>209134.2730524788</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>227555.5980908876</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>206975.4147080632</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>216028.5942024358</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>240306.0922212368</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>224631.760617815</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>224369.1273335038</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:2">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>225664.0077589579</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>212070.9902171343</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:2">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>196257.3832571403</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:2">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>215511.4140577466</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>231027.0841864049</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>236753.4365364402</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:2">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>247684.3568550009</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>251191.9853305315</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>246811.2090917607</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:2">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>259070.3677537788</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>240306.1397897088</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>252599.8311201011</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>254693.2812033671</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:2">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>246824.9077910195</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>239055.6403473913</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>233640.2084630126</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:2">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>231145.854250667</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:2">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>231844.9846960136</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:2">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>240824.6355906548</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:2">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>223606.9493749218</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>222595.4157451683</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:2">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>227626.7526125359</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:2">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>227828.74144778</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>244034.3745024574</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:2">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>236905.9632900765</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:2">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>249626.4288656431</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:2">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>246283.9169060099</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:2">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>261523.8282844671</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:2">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>261454.4736575836</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:2">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>257650.2222108042</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:2">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>255921.8780062405</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:2">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>282134.3930288267</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:2">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>268955.7123550628</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:2">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>247511.1815510797</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:2">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>260868.8568615536</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:2">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>258238.2981316641</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:2">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>245841.2062038864</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:2">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>221239.0049570133</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:2">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>219245.9227746457</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:2">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>229103.4845921453</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:2">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>245722.914009836</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:2">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>230092.4984081947</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:2">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>224907.4858108975</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:2">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>222710.6852203484</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:2">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>221583.2256162342</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:2">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>219405.6952547106</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>235072.6324942677</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:2">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>245107.6689380239</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:2">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>250009.9678183386</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>301135.3201786751</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:2">
-      <c r="A1051" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>286044.7286429199</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:2">
-      <c r="A1052" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>292944.7147610668</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:2">
-      <c r="A1053" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>271246.8878956654</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:2">
-      <c r="A1054" s="1" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>268597.3914338228</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:2">
-      <c r="A1055" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>247267.69302616</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:2">
-      <c r="A1056" s="1" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>270498.6319622252</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:2">
-      <c r="A1057" s="1" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>274557.3349665751</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:2">
-      <c r="A1058" s="1" t="n">
-        <v>1056</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>256422.0482183306</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:2">
-      <c r="A1059" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>252546.1775555521</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:2">
-      <c r="A1060" s="1" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>253395.6832528014</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:2">
-      <c r="A1061" s="1" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>265114.1362900213</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:2">
-      <c r="A1062" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>252214.9699966768</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2">
-      <c r="A1063" s="1" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>259871.0356289545</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:2">
-      <c r="A1064" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>253477.6410628127</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:2">
-      <c r="A1065" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>261282.3613254451</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:2">
-      <c r="A1066" s="1" t="n">
-        <v>1064</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>288056.4673868778</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:2">
-      <c r="A1067" s="1" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>320964.446730183</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:2">
-      <c r="A1068" s="1" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>319124.716665887</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:2">
-      <c r="A1069" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>328128.055506043</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:2">
-      <c r="A1070" s="1" t="n">
-        <v>1068</v>
-      </c>
-      <c r="B1070" t="n">
-        <v>349301.2694802959</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2">
-      <c r="A1071" s="1" t="n">
-        <v>1069</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>394522.0238122473</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:2">
-      <c r="A1072" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>371779.9369396027</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:2">
-      <c r="A1073" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>389461.8289580527</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:2">
-      <c r="A1074" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>370561.0817146035</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:2">
-      <c r="A1075" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>370420.8849561055</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:2">
-      <c r="A1076" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>366454.7686436051</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:2">
-      <c r="A1077" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>378061.0055048781</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:2">
-      <c r="A1078" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>408113.890870882</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:2">
-      <c r="A1079" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>451685.2611954377</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:2">
-      <c r="A1080" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>460677.7002371195</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:2">
-      <c r="A1081" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>452600.6808993368</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:2">
-      <c r="A1082" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>442660.6522637811</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:2">
-      <c r="A1083" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>437635.017924816</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:2">
-      <c r="A1084" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>446167.5007882662</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:2">
-      <c r="A1085" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>457024.8373397886</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:2">
-      <c r="A1086" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>467812.0587762215</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="A1087" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>460642.4948409973</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>437457.9846686262</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>423157.6981455972</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>403251.0649174451</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:2">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>403852.966531786</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:2">
-      <c r="A1092" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>381786.2282700209</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:2">
-      <c r="A1093" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>389287.229704408</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:2">
-      <c r="A1094" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>380260.9278346034</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:2">
-      <c r="A1095" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>376815.8193346754</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:2">
-      <c r="A1096" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>365191.7194990369</v>
+        <v>338804.1669714651</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>294815.5500636398</v>
+        <v>313024.7144949709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>231069.1048720894</v>
+        <v>374664.9703470997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>226250.3368421184</v>
+        <v>398383.4711532447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>231850.1894810762</v>
+        <v>383214.222852997</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>230428.4351830781</v>
+        <v>357177.7426019627</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232076.2556397856</v>
+        <v>345112.4654422303</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>229727.0079932084</v>
+        <v>343015.6876009504</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>224773.2325736279</v>
+        <v>336135.6426763812</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>230183.0890730607</v>
+        <v>330553.0894763881</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>247598.9091291462</v>
+        <v>329309.0572624947</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>245913.4834631695</v>
+        <v>319899.5590145297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261990.0291850758</v>
+        <v>314622.283669675</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>265937.5497983259</v>
+        <v>310184.8167088172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>274143.1684975285</v>
+        <v>295188.7343591361</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351459.099598067</v>
+        <v>288482.4493901874</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>338178.9867492321</v>
+        <v>291970.6768391706</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>335815.9914741415</v>
+        <v>338943.8877282725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>333162.8247990543</v>
+        <v>342721.9912530241</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>329949.7049571598</v>
+        <v>339391.239125466</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>327391.8539063283</v>
+        <v>349079.0294056983</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>322851.8186245995</v>
+        <v>346095.0780502291</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>312677.158051177</v>
+        <v>337730.4210607582</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>306670.5955560571</v>
+        <v>341333.0721877442</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>304997.1707918016</v>
+        <v>354614.39192792</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>299888.6686166165</v>
+        <v>364513.3600520801</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>294550.2249248488</v>
+        <v>362322.4108015036</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>292146.8253516477</v>
+        <v>357116.4034609374</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>283484.9430835098</v>
+        <v>367226.1513581008</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>287489.818972586</v>
+        <v>356944.4898144781</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>299149.7219232243</v>
+        <v>352146.2177194985</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>307428.6215291043</v>
+        <v>359636.0278237635</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>356654.2758635218</v>
+        <v>347322.1873001822</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>390896.3764663412</v>
+        <v>325411.3241344223</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>397433.8276121362</v>
+        <v>321065.2930759335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>374994.8831429905</v>
+        <v>310947.9689763367</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>376384.3600836531</v>
+        <v>301319.4620529047</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>369215.3701218325</v>
+        <v>306617.2110782754</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>350946.2092504677</v>
+        <v>303304.6674643893</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>331649.4849508962</v>
+        <v>307588.5494359931</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>325605.7900965378</v>
+        <v>300268.6475524868</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>331425.2375632708</v>
+        <v>306265.0958809613</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>340712.512046303</v>
+        <v>305471.5289328276</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>340369.7014874704</v>
+        <v>304374.6516762177</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>319790.1523873408</v>
+        <v>308047.4613650008</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>311368.1606843245</v>
+        <v>332849.3099505476</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>298521.4475191163</v>
+        <v>369657.5610393189</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>298297.8214138966</v>
+        <v>415489.028805888</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>301847.208931501</v>
+        <v>447822.1058242591</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>321366.2618688265</v>
+        <v>456001.8732212847</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>357373.1079402743</v>
+        <v>477843.3420082965</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>405708.2606099097</v>
+        <v>475202.3464350311</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>433863.5467466868</v>
+        <v>466912.7749234655</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>472404.6711626769</v>
+        <v>457869.8868202759</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>473231.8612439065</v>
+        <v>438021.4289051045</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>459244.4433994532</v>
+        <v>419169.119412491</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>442637.2678906855</v>
+        <v>409873.248686185</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>423269.1959586323</v>
+        <v>397021.0448819433</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>416690.0910895506</v>
+        <v>392700.9631784321</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>406431.2948441393</v>
+        <v>379836.699410863</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>390443.7502701017</v>
+        <v>392317.7915227829</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>306966.3052538712</v>
+        <v>317810.2377715723</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>306408.7454018393</v>
+        <v>308192.9811356534</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>302809.0725292995</v>
+        <v>306307.4351973066</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>293368.4579620232</v>
+        <v>307268.26212029</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>289066.0964429942</v>
+        <v>305734.673838446</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>276519.4976557607</v>
+        <v>295303.5044509106</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>276380.4806596602</v>
+        <v>293734.5718623327</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>290830.9178163039</v>
+        <v>283315.8083796562</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>305222.3656778557</v>
+        <v>281941.2189258958</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>320100.9634222502</v>
+        <v>276231.5437694743</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>349090.6763101509</v>
+        <v>282315.1568819877</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>366051.3465741181</v>
+        <v>264262.3318874284</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>375387.8761871507</v>
+        <v>269611.3214060171</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>380119.782581485</v>
+        <v>274074.9654040181</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>388741.1747777404</v>
+        <v>277550.9628691972</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>372179.3375906534</v>
+        <v>283263.2546960968</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>364953.4565213866</v>
+        <v>278268.5538758094</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>374785.3336930387</v>
+        <v>280227.6839724681</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>378306.1969789967</v>
+        <v>289306.3695614623</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>374826.6150228542</v>
+        <v>282138.9552429871</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>374738.0201590828</v>
+        <v>279362.0423104883</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>371756.0552917625</v>
+        <v>286057.224137679</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>343590.4360336597</v>
+        <v>275202.4527999961</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>284431.5593698854</v>
+        <v>224350.8610929935</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>276725.501896635</v>
+        <v>251797.6575072298</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>263568.6292456849</v>
+        <v>253072.1731721971</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>258190.0353628932</v>
+        <v>283043.3789360438</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>247594.8163228713</v>
+        <v>311418.6860467094</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>245887.4575744801</v>
+        <v>326457.4590498612</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>243179.0718369577</v>
+        <v>319253.3838516045</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>205157.380500571</v>
+        <v>350119.3515634637</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>209741.1465700586</v>
+        <v>315784.1970096639</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>281714.0438530676</v>
+        <v>312747.3309835301</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>289015.8505438349</v>
+        <v>309453.0886308479</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>296482.2147258825</v>
+        <v>298516.9895024786</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>309269.4094336962</v>
+        <v>298616.5945471344</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>322323.2803067461</v>
+        <v>298263.3894632523</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>325998.7684399108</v>
+        <v>281253.2518127763</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>344412.916025841</v>
+        <v>297321.5617867114</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>338603.9380967331</v>
+        <v>288792.5849319355</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>330662.9549910757</v>
+        <v>283725.074986051</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>326474.6160864105</v>
+        <v>282208.4602804453</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>326394.3693641918</v>
+        <v>281328.4133558949</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>345381.1168282751</v>
+        <v>273724.3829883739</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>342886.0685705267</v>
+        <v>272087.0046933335</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>282808.1119476264</v>
+        <v>242322.6848876955</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>288112.5246844917</v>
+        <v>254752.0726313927</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>281938.3141323126</v>
+        <v>254017.1667828449</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>276843.9147687654</v>
+        <v>267295.0767638787</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>266299.0422393757</v>
+        <v>278327.8023492256</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>254114.5874609856</v>
+        <v>297791.1884541555</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>261090.925217069</v>
+        <v>310879.6081110704</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>263143.1035062862</v>
+        <v>337508.9941774303</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>266408.1583338761</v>
+        <v>369411.5360267893</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>286450.0980624308</v>
+        <v>406052.6417703365</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>276580.380988618</v>
+        <v>418962.9706508802</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>289304.7219349847</v>
+        <v>424928.4094209981</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>298186.8561678209</v>
+        <v>421764.8853534611</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>300408.6485738206</v>
+        <v>413028.3567482494</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>316424.0584200093</v>
+        <v>424204.7114620363</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>191583.5639723224</v>
+        <v>289348.7808524381</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>196631.8670133651</v>
+        <v>323087.8360259928</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>210950.1662189058</v>
+        <v>369018.170235043</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>207615.0288662923</v>
+        <v>353439.6570109333</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>218489.3547938901</v>
+        <v>321816.7912916075</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>236992.990574965</v>
+        <v>266682.2035261185</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>260067.8398406341</v>
+        <v>232416.2024437315</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>284513.0765610463</v>
+        <v>223057.0455879514</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>302745.7491468905</v>
+        <v>214270.0200925888</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>319157.5926909252</v>
+        <v>212273.7146338171</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>346561.9595964681</v>
+        <v>209313.4970749358</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>354860.537001936</v>
+        <v>209890.1096786878</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>349099.156997078</v>
+        <v>205520.9820262367</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>333837.2377139401</v>
+        <v>203032.39079187</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>318259.0612635532</v>
+        <v>208648.7249880407</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>340223.5456310546</v>
+        <v>215919.8269622295</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>444032.4194938682</v>
+        <v>216839.5457049889</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>482282.8610392354</v>
+        <v>218822.1973623137</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>488032.6785682698</v>
+        <v>226793.3086915548</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>491236.4706825282</v>
+        <v>279590.0179048027</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>471135.6877416356</v>
+        <v>392993.111669112</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>457975.3531796695</v>
+        <v>440854.0695892919</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>443358.8020912542</v>
+        <v>472382.6059834174</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>441385.2122849502</v>
+        <v>502011.1069855208</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>441342.2913218135</v>
+        <v>518167.3141692803</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>453273.4205409394</v>
+        <v>525374.7881767538</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>435310.005242206</v>
+        <v>532755.1252923937</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>433257.6928166032</v>
+        <v>529674.0180920946</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>438168.1225934619</v>
+        <v>518528.5379295895</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>483439.6758437142</v>
+        <v>507642.7498161126</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>502563.6988448291</v>
+        <v>497019.4972590847</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>545689.1859052797</v>
+        <v>517352.0131021886</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>548135.1058936396</v>
+        <v>518282.5959939212</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>555848.888905109</v>
+        <v>494036.1576232245</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>557867.864098135</v>
+        <v>507552.7053349885</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>558067.4840031479</v>
+        <v>493387.6136831504</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>558794.2316548524</v>
+        <v>511093.891376653</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>555886.8053200035</v>
+        <v>512204.2571086257</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>551968.0497976691</v>
+        <v>534779.3951514427</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>547805.4154805592</v>
+        <v>521316.2151807485</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>544514.4305334989</v>
+        <v>535569.4199188445</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>543947.94272222</v>
+        <v>511343.7338956036</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>545836.3022621066</v>
+        <v>518534.4470315817</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>547508.6272883257</v>
+        <v>487062.3961338172</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>549478.9823142728</v>
+        <v>498500.9482630108</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>549366.4695332946</v>
+        <v>468595.4386770053</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>538106.6288395307</v>
+        <v>497926.9038688903</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>525976.7705273662</v>
+        <v>488689.2148311778</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>540217.3948296733</v>
+        <v>511248.2069576505</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>533455.582467005</v>
+        <v>495080.5015389948</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>537809.303162415</v>
+        <v>517817.709681171</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>525483.8517475171</v>
+        <v>494191.2305630282</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>527160.3537225386</v>
+        <v>517995.8217355851</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>519788.7591432552</v>
+        <v>502370.23590658</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>527139.5294299354</v>
+        <v>511411.1074336283</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>524716.1082508601</v>
+        <v>492524.9164873827</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>527530.1617979024</v>
+        <v>489461.991930064</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>520611.6401811765</v>
+        <v>483295.9786334271</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>514648.5844174714</v>
+        <v>477531.6395565558</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>497723.0757137157</v>
+        <v>466886.3176861519</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>496850.0015052003</v>
+        <v>440627.1214032628</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>488327.4141438379</v>
+        <v>451067.4810436418</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>345369.8624545306</v>
+        <v>511883.2443977915</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>368762.3081115562</v>
+        <v>436710.4972497345</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>366628.6064568874</v>
+        <v>394801.8388082455</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>327648.3586969951</v>
+        <v>411319.1930026298</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>355063.5090515169</v>
+        <v>467835.6162461849</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>347708.7964490481</v>
+        <v>483058.9897185366</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>329491.7282999153</v>
+        <v>472590.1451914635</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>339701.8952857007</v>
+        <v>460876.4267127401</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>332732.5089855</v>
+        <v>430210.5327047276</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>318867.609288731</v>
+        <v>436901.0762061426</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>306631.3583504147</v>
+        <v>427002.0514894826</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>288038.8150659949</v>
+        <v>405441.1972435045</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>286690.3861213885</v>
+        <v>413696.9256610069</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>264324.6683093008</v>
+        <v>429977.6614830291</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>235109.8403662422</v>
+        <v>404063.4929438168</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>253695.0574366995</v>
+        <v>395716.5360810328</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>249869.7893716466</v>
+        <v>387293.9342683898</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>249381.3304770389</v>
+        <v>379611.3201821999</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>237566.1064565345</v>
+        <v>391532.4862111061</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>209112.962389044</v>
+        <v>392942.8008812845</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>218201.8818803389</v>
+        <v>376638.8738881495</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>213032.1565727081</v>
+        <v>359922.090980144</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>213553.1930054555</v>
+        <v>348808.8045527374</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>221242.0433990463</v>
+        <v>376079.770404399</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>212676.8542729558</v>
+        <v>373975.5652757623</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>206455.1096380884</v>
+        <v>344892.6633360363</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>200087.0574468086</v>
+        <v>344231.3980964182</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>188768.0768185312</v>
+        <v>376793.0163982279</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>186636.3917658027</v>
+        <v>360084.1790843797</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>180013.4536931733</v>
+        <v>344780.9239128102</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>184343.1342348016</v>
+        <v>326836.8046098071</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>178281.9108810429</v>
+        <v>296149.1132572188</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>182111.5238144051</v>
+        <v>297370.8308674957</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>195168.7674691532</v>
+        <v>289535.0161226546</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>217574.353017279</v>
+        <v>286307.0381273007</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>194056.9130157968</v>
+        <v>281569.4818421592</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>187423.2071570209</v>
+        <v>273502.0879636566</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>207143.6908384764</v>
+        <v>275706.2417352167</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>219824.5162666346</v>
+        <v>284902.4895286116</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>202753.9556808348</v>
+        <v>280615.1502619565</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>198393.9722219234</v>
+        <v>280523.6496428479</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>179186.9802646388</v>
+        <v>263925.9483431007</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>200523.6127638311</v>
+        <v>304748.0898429394</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>196007.8109793651</v>
+        <v>261786.1890756497</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>188183.4092114358</v>
+        <v>260745.2321768583</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>200179.59248185</v>
+        <v>282680.5081121103</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>208401.3698847466</v>
+        <v>280287.8653411546</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>206795.7463842398</v>
+        <v>276537.6278584677</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>205396.1265814517</v>
+        <v>269592.4027514097</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>211822.2494970333</v>
+        <v>272235.8453416664</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>196946.3445557967</v>
+        <v>282415.6810784939</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>184781.6971311395</v>
+        <v>275504.7453247639</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>174798.5775946314</v>
+        <v>267714.0754402197</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>180957.5767488893</v>
+        <v>262104.3512215584</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>187467.7333535662</v>
+        <v>265117.016749155</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>174009.4422868889</v>
+        <v>261731.2599346834</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>165454.8930550936</v>
+        <v>265290.9401449522</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>163134.5719455041</v>
+        <v>270534.3443409125</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>161031.7919541024</v>
+        <v>254710.5783046009</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>166060.2302569312</v>
+        <v>251278.2119717317</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>227027.0028317222</v>
+        <v>320400.6342389454</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>135673.9948515932</v>
+        <v>224573.6148455599</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>131702.7531578272</v>
+        <v>216957.545083655</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>116705.3287097822</v>
+        <v>189300.0381497853</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>121926.7795298315</v>
+        <v>184363.2215000939</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>127835.2537458183</v>
+        <v>191020.9698544306</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>140173.1097913906</v>
+        <v>184149.2726763084</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>135321.2503601188</v>
+        <v>177115.2987370316</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>134727.8298282378</v>
+        <v>177942.6858849353</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>136363.6160067085</v>
+        <v>159916.3121386821</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>183707.8517732893</v>
+        <v>162396.8449843583</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>188563.3810414056</v>
+        <v>163558.6576522793</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>183392.4557348771</v>
+        <v>160964.3979466082</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>176185.388426627</v>
+        <v>160670.558819252</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>162288.2701994995</v>
+        <v>156108.8631087006</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>185582.9125389236</v>
+        <v>156389.0785328767</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>172841.6406944882</v>
+        <v>167082.7001691068</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>166692.5079018953</v>
+        <v>174500.246244135</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>160298.2432169467</v>
+        <v>173016.0073221334</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>166200.6382004165</v>
+        <v>173971.5794895695</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>156217.8380649556</v>
+        <v>183967.3819397214</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>164457.7419495595</v>
+        <v>193611.4640743733</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>168231.729849435</v>
+        <v>177816.901984162</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>171248.1802701318</v>
+        <v>184086.2298219934</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>157976.7885299264</v>
+        <v>178567.2283918767</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>166462.6986525574</v>
+        <v>188262.6316372679</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>164507.2453846471</v>
+        <v>176044.5764768381</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>160385.1317458698</v>
+        <v>187083.555218182</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>171902.8228117538</v>
+        <v>184842.9711393932</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>174487.7555607856</v>
+        <v>190414.7369178506</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>170663.2205090204</v>
+        <v>200413.2506124864</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>186252.6958608364</v>
+        <v>190099.4003208786</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>218175.0841003327</v>
+        <v>215338.7834606253</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>217263.4600239189</v>
+        <v>247617.5606917476</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>228363.0869854093</v>
+        <v>228987.0983221996</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>226702.1400933805</v>
+        <v>214721.0185694516</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>225840.1866171489</v>
+        <v>210107.1863310573</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>215959.7413937963</v>
+        <v>223492.0184168283</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>216984.1569761663</v>
+        <v>239357.5018019037</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>219067.9311466622</v>
+        <v>232924.0306462186</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>223218.9835709406</v>
+        <v>239920.5806690386</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>235693.2746488562</v>
+        <v>227072.2297324993</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>264944.1188735021</v>
+        <v>221685.2472142826</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>267630.4575415381</v>
+        <v>211331.2573196817</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>253252.1897544566</v>
+        <v>202306.9960379325</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>252385.3307350846</v>
+        <v>197598.8193954439</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>274828.8183404357</v>
+        <v>203832.8366606077</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>315470.6947956256</v>
+        <v>209949.6848344654</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>310021.6444144009</v>
+        <v>221985.0128219093</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>283720.6146547288</v>
+        <v>213544.9618695634</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>280792.2006334083</v>
+        <v>203594.8178788798</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>273142.8949263687</v>
+        <v>198912.2963594399</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>281815.9656762349</v>
+        <v>201174.5060552381</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>257387.249666359</v>
+        <v>197581.4233653666</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>234836.4717844294</v>
+        <v>197370.3793581163</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>243380.5251916921</v>
+        <v>196306.2498079009</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>252339.2388787985</v>
+        <v>199422.6970085761</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>266726.1368136134</v>
+        <v>201078.5677979159</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>257561.2588439041</v>
+        <v>207531.5448103154</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>254319.6276261744</v>
+        <v>212604.3567969924</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>242645.2409778573</v>
+        <v>217478.4636963402</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>228979.2261320875</v>
+        <v>219824.8273423419</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>223739.9481683373</v>
+        <v>210482.4607192398</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>203035.3510134279</v>
+        <v>195566.1543716002</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>216575.6763208172</v>
+        <v>195702.9476094127</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>220680.319676487</v>
+        <v>194011.1128594781</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>218133.9274280794</v>
+        <v>191177.8480131772</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>228530.3262671811</v>
+        <v>186353.0709132632</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>235027.4578225009</v>
+        <v>188145.729614237</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>251075.3015228641</v>
+        <v>185565.7663933772</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>280248.7036650266</v>
+        <v>186522.7904279302</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>293361.6393052351</v>
+        <v>190882.8979673228</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>332046.219876461</v>
+        <v>194483.8135841886</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>324214.1027416612</v>
+        <v>191811.6564702404</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>322295.8248999724</v>
+        <v>196490.5289060725</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>330400.6419785364</v>
+        <v>202335.1118755398</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>348148.5956740141</v>
+        <v>202872.1381329872</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>348211.4403838334</v>
+        <v>202254.0096928907</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>334004.9988232228</v>
+        <v>208601.1151875053</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>345668.9020821283</v>
+        <v>213241.7077396654</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>357338.2244586534</v>
+        <v>220191.8800581183</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>356769.2335606625</v>
+        <v>205264.853904848</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>323387.3216902093</v>
+        <v>205397.3734351638</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>315426.2661167416</v>
+        <v>210714.9727256938</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>317013.1316679918</v>
+        <v>215690.8361784575</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>320098.3824012422</v>
+        <v>215577.931528352</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>361018.1267361546</v>
+        <v>210167.193180764</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>378945.1502931131</v>
+        <v>205440.9483999123</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>388684.3345106705</v>
+        <v>202014.1272434632</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>407129.7840334773</v>
+        <v>203358.3113954354</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>446142.9222988377</v>
+        <v>205374.1522226448</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>486251.1121947107</v>
+        <v>202466.8171681076</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>528465.7402088266</v>
+        <v>208932.0841592668</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>563393.4207575982</v>
+        <v>235346.6226816089</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>554408.0887587732</v>
+        <v>248404.3283911195</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>541060.415625348</v>
+        <v>235911.4037521583</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>531455.3124064906</v>
+        <v>241842.053470449</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>508151.4090972077</v>
+        <v>255061.6075402658</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>464806.0432591522</v>
+        <v>275281.2177627807</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>461335.0911267857</v>
+        <v>277219.8886557377</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>449745.7161378425</v>
+        <v>269658.0067094264</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>450296.6059620194</v>
+        <v>277468.9657676563</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>451612.5795648574</v>
+        <v>272306.046178137</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>489459.2561526841</v>
+        <v>265884.4461742933</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>490172.5059893441</v>
+        <v>263004.6261445782</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>499281.8776433368</v>
+        <v>257906.4563089876</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>488221.369555299</v>
+        <v>264977.6528252767</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>504109.1070013539</v>
+        <v>272287.331100748</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>474250.8748102834</v>
+        <v>258412.0907238374</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>457495.4466724541</v>
+        <v>255561.5081911559</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>427696.6382073365</v>
+        <v>257567.7954184542</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>423234.8160504939</v>
+        <v>275439.2628775417</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>381504.5688307291</v>
+        <v>296199.5971410957</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>381093.8464396019</v>
+        <v>319471.2676933723</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>382081.427965149</v>
+        <v>314251.5207133323</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>375802.4430770925</v>
+        <v>303878.541001373</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>364302.7364503018</v>
+        <v>303546.8471679321</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>354288.2956116025</v>
+        <v>300927.0096474977</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>356024.5181860439</v>
+        <v>297168.5530491025</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>345539.84831944</v>
+        <v>297408.8786011144</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>343890.0526035445</v>
+        <v>299544.8820805264</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>365742.2620994927</v>
+        <v>303524.058625797</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>365400.5320170451</v>
+        <v>301283.0499851822</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>333938.1926313186</v>
+        <v>305126.6955484152</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>264552.645212799</v>
+        <v>312064.2842389146</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>258353.807822944</v>
+        <v>322279.7663662289</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>252444.7519353362</v>
+        <v>317084.5297274417</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>241674.4372403805</v>
+        <v>305663.5422889149</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>203875.9398475499</v>
+        <v>307998.051725499</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>203330.4727633016</v>
+        <v>289658.651778673</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>199847.7372371015</v>
+        <v>275128.3489443481</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>210993.970120005</v>
+        <v>271779.1347064389</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>216614.2282109832</v>
+        <v>270136.8007659684</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>242541.2613536853</v>
+        <v>274487.7135006182</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>306857.9057469797</v>
+        <v>295703.9787052334</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>306535.7909912844</v>
+        <v>322826.1955954523</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>310271.5255985742</v>
+        <v>356673.8038709199</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>322883.5237970817</v>
+        <v>371588.9993334087</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>325230.5114736871</v>
+        <v>383334.4251552512</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>321901.842565968</v>
+        <v>424298.5063589263</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>317440.8564499203</v>
+        <v>446139.414377903</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>309017.0071772149</v>
+        <v>447249.3678190419</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>300569.3005779185</v>
+        <v>432925.4149020169</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>299782.9565659731</v>
+        <v>408085.2701505676</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>292417.5951658724</v>
+        <v>391306.0665027293</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3480,7 +3480,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>290044.575547423</v>
+        <v>394060.4348322121</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>288403.5279467347</v>
+        <v>383231.7301594749</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>290748.0636538987</v>
+        <v>385764.0584388003</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>285988.4157974564</v>
+        <v>386996.0552684192</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>288405.738428042</v>
+        <v>357565.6959422857</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>288617.6881419599</v>
+        <v>353830.838774197</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>291062.3115285204</v>
+        <v>355358.7749321534</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>298157.8992363538</v>
+        <v>351639.1255959512</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>301277.1545648922</v>
+        <v>352663.8959633674</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>288058.4379590629</v>
+        <v>360520.0251145703</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>274696.9412326604</v>
+        <v>334632.5730355592</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>274218.1532829174</v>
+        <v>323735.7427922314</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>264504.8748161113</v>
+        <v>328894.4949709418</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>273853.418769684</v>
+        <v>338476.5286938405</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>272025.7227579084</v>
+        <v>328175.8300036875</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>274097.422915769</v>
+        <v>324956.8302334687</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>273892.3819928892</v>
+        <v>310399.3401654573</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>278777.9083639469</v>
+        <v>308108.1751859843</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>305229.7739966519</v>
+        <v>313786.9986268667</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>320733.9476495461</v>
+        <v>326657.0751276911</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>308108.7429459228</v>
+        <v>324565.4324407244</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>314481.1161476017</v>
+        <v>337819.7111717199</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>320326.2370283406</v>
+        <v>330688.1908232722</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>310325.3461154893</v>
+        <v>332246.9471964992</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>311108.6086295869</v>
+        <v>333830.7504534512</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>307358.0396646031</v>
+        <v>327057.7916401365</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>303158.7387553742</v>
+        <v>333359.5157003588</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>295581.5754335477</v>
+        <v>335152.4762667917</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>296295.573542408</v>
+        <v>330401.5815858905</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>293812.070753023</v>
+        <v>324661.9377370821</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>293559.5358493102</v>
+        <v>335295.6247376577</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>298011.689832608</v>
+        <v>330617.8452575472</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>296963.9018945612</v>
+        <v>329769.4391682393</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>299439.7570588672</v>
+        <v>332471.1645195766</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>298645.2924047633</v>
+        <v>344999.1337542182</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>299423.4692968783</v>
+        <v>349337.2858529217</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>291627.9357926109</v>
+        <v>352585.7242665139</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>321014.8660985022</v>
+        <v>384704.4037278265</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>251951.5455010827</v>
+        <v>338342.1494712085</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>249198.6850507273</v>
+        <v>341275.5067974514</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>255197.6744225955</v>
+        <v>334291.0438684457</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>251762.0709506781</v>
+        <v>314066.025954659</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>265872.0379512418</v>
+        <v>313088.2901968412</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>269411.0779793884</v>
+        <v>312366.0533712975</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>260380.1308593814</v>
+        <v>296349.4227574414</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>259042.3642725686</v>
+        <v>290123.6414828431</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>263272.7767487267</v>
+        <v>308799.0266523641</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>249896.5584381757</v>
+        <v>332739.1859003191</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>246484.6534199845</v>
+        <v>318985.673454766</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>245972.2822722434</v>
+        <v>319425.9997124101</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>238906.0937565161</v>
+        <v>303968.5790952949</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>232435.109187541</v>
+        <v>290376.263880873</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>240201.8861411423</v>
+        <v>280088.837856148</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>234548.9274999354</v>
+        <v>290553.1079813642</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>233822.3527241096</v>
+        <v>297573.4299981094</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>230443.2178261002</v>
+        <v>285601.3596029591</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>231757.7548576954</v>
+        <v>283775.4840127043</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>240257.446997693</v>
+        <v>288421.6827976372</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>246870.88545622</v>
+        <v>283549.9398919479</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>240825.3546901429</v>
+        <v>288971.199837207</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>242331.342447889</v>
+        <v>280937.1742989922</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>207909.7647849367</v>
+        <v>240055.1419911374</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>218345.7091613564</v>
+        <v>253748.7992550224</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>237140.9915177259</v>
+        <v>315725.3014287569</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>247454.2683727301</v>
+        <v>316917.6415640123</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>251600.5052317717</v>
+        <v>309991.7011424922</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>247948.6853335573</v>
+        <v>306177.8017670407</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>223027.0324966593</v>
+        <v>306979.1986972383</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>192907.6066242897</v>
+        <v>305926.0942564619</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>176799.6277554561</v>
+        <v>279496.7541178543</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>186749.7919517683</v>
+        <v>253524.0701846742</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>214666.4138507327</v>
+        <v>257972.8276140978</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>216998.2770294575</v>
+        <v>274153.3696182928</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>220735.1838639431</v>
+        <v>274806.8496472347</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>251464.5587699412</v>
+        <v>281983.5722736546</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>247144.0360854253</v>
+        <v>276830.1149371063</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>254425.9058153498</v>
+        <v>272768.0795480863</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>234626.8803434382</v>
+        <v>275699.9650643423</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>225606.2406625093</v>
+        <v>280440.7567742712</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>225569.0848869413</v>
+        <v>305261.3365280186</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>230830.6847786916</v>
+        <v>319600.8512295809</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>287243.7662132902</v>
+        <v>336480.7717315236</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>316516.2203116942</v>
+        <v>343911.285587157</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>486569.3099546451</v>
+        <v>329433.596756634</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>501051.2207417184</v>
+        <v>350347.6343615967</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>509756.3133806136</v>
+        <v>343178.3707971241</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>517791.5321734746</v>
+        <v>325704.1868168343</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>512443.0578255784</v>
+        <v>310741.8421941451</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>464201.1183178183</v>
+        <v>293491.4573144078</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>392195.8618654917</v>
+        <v>300331.9513671185</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>433283.9498774039</v>
+        <v>311732.2633639351</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>356999.1411594122</v>
+        <v>315418.236206252</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>375403.9142466323</v>
+        <v>316614.8147020304</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>327701.2422429788</v>
+        <v>332560.3842830902</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>329994.8994525177</v>
+        <v>345407.0724736592</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>302173.0379629044</v>
+        <v>369766.6968544974</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>315364.8117139805</v>
+        <v>425242.0004598491</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>343216.4943820084</v>
+        <v>416001.9267293095</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>307947.4470059027</v>
+        <v>204975.342334904</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>252961.2367270173</v>
+        <v>216613.6587703355</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>242539.8312418456</v>
+        <v>218082.9074641273</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>234091.7256645446</v>
+        <v>228233.148957583</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>231420.5058684018</v>
+        <v>234909.909501919</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>233491.3919437516</v>
+        <v>242419.1131581619</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>233438.3442983771</v>
+        <v>246171.0477534041</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>214053.4111756272</v>
+        <v>253007.637879328</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>245204.7318570069</v>
+        <v>265042.6815962079</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>249361.0563268641</v>
+        <v>262407.8291768768</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>249540.3299331965</v>
+        <v>252950.8631158589</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>281415.8692847451</v>
+        <v>244807.4010659881</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>332693.9512240094</v>
+        <v>242097.5399536286</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>386939.7180080072</v>
+        <v>261002.7744018828</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>479446.4327715687</v>
+        <v>293182.7374310028</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>363024.8970293436</v>
+        <v>359016.4480578199</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>410030.9893315246</v>
+        <v>421606.5496225415</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>347111.7523607482</v>
+        <v>512936.7635973082</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>392880.5764709323</v>
+        <v>547330.4882196556</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>344671.1880606436</v>
+        <v>546761.6875620728</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>354108.9456212891</v>
+        <v>553368.7533442768</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>302364.8803216103</v>
+        <v>544982.3756452294</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>340746.807595069</v>
+        <v>537411.5376408343</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>353353.7371454344</v>
+        <v>498787.1602683355</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>368678.0099401309</v>
+        <v>533234.9385198525</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>368109.6327198103</v>
+        <v>519230.6443998288</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>373111.8687561768</v>
+        <v>540166.7343134097</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>339483.3704128753</v>
+        <v>489234.7017088194</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>381550.6254636524</v>
+        <v>504036.6325750861</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>358691.922487143</v>
+        <v>437134.032326985</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>346416.9281657918</v>
+        <v>494458.1067828324</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>367068.7393089027</v>
+        <v>491327.989372251</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>404402.4506100717</v>
+        <v>529974.989333299</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>330598.6635279224</v>
+        <v>480293.5678233084</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>360065.1023548107</v>
+        <v>514554.0998328737</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>334555.9770149089</v>
+        <v>442455.9877024127</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>370040.2283350186</v>
+        <v>501344.4996048127</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>355287.566417843</v>
+        <v>466410.8218201384</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>412491.1469344518</v>
+        <v>530735.8595434857</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>368605.9237665173</v>
+        <v>521608.4329169623</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>417439.388574496</v>
+        <v>531486.8440526867</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>427592.8248083513</v>
+        <v>513995.6491389968</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>409826.8380028513</v>
+        <v>507843.2998418768</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>364949.1943407826</v>
+        <v>455532.346854101</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>362563.7930354144</v>
+        <v>489580.0427291199</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>355642.1004103519</v>
+        <v>492626.9008213821</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>358477.3833775082</v>
+        <v>509457.0785722258</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>378903.8633228855</v>
+        <v>486393.0114675378</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>388702.8538061818</v>
+        <v>507326.5811975504</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>388137.6025554049</v>
+        <v>444958.7343598877</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>362001.3938229136</v>
+        <v>450575.6275179761</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>317159.8724873264</v>
+        <v>393473.187851513</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>306635.4856901438</v>
+        <v>439264.6259565943</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>298918.8655944237</v>
+        <v>447662.6001489276</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>301349.614309465</v>
+        <v>507275.6730877426</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>312864.5736872999</v>
+        <v>510230.8399165213</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>290386.1678690182</v>
+        <v>502255.5900822182</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>289963.5769270246</v>
+        <v>494484.4230713373</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>296398.8804984649</v>
+        <v>481380.3466897191</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>280904.7782609745</v>
+        <v>474044.9047810633</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>268857.5355173434</v>
+        <v>461692.6102058535</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>255315.7027425446</v>
+        <v>436353.440912203</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>383358.2929453711</v>
+        <v>383290.5688418694</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>278332.96870701</v>
+        <v>362613.2056450351</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>289552.4102184145</v>
+        <v>344546.1883412644</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>263012.2955045774</v>
+        <v>347785.9252788709</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>246298.5191612391</v>
+        <v>342990.1941003413</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>241370.0539694103</v>
+        <v>330597.4874248912</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>243109.1070765194</v>
+        <v>308742.5626143098</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>236223.4067842708</v>
+        <v>296741.585933159</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>244527.9060332401</v>
+        <v>294162.7992234784</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>237772.5050176901</v>
+        <v>295059.858901588</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>231005.0382617752</v>
+        <v>286946.4500204214</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>340386.79708167</v>
+        <v>278644.53780301</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>307498.776571924</v>
+        <v>277577.4603706225</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>304807.3629443368</v>
+        <v>259550.4952784193</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>292226.3170564296</v>
+        <v>276802.1600056353</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>285061.8478857341</v>
+        <v>295190.2685614509</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>265602.2337843837</v>
+        <v>272582.6841660431</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>266325.0266278025</v>
+        <v>263860.8795931994</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>267496.7352922498</v>
+        <v>254080.7026655458</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>265816.1973292383</v>
+        <v>260058.9534340564</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>269560.26345388</v>
+        <v>260488.3324858801</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>269132.8355403828</v>
+        <v>259552.9902334771</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>266300.0165116292</v>
+        <v>253421.7812946496</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>261139.9032894843</v>
+        <v>260555.1017888533</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>258789.6468409808</v>
+        <v>260242.3702680315</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>254788.2744776502</v>
+        <v>250886.1593177228</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>260044.015664475</v>
+        <v>257940.3146269109</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>256133.4978060446</v>
+        <v>270982.1886369207</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>250062.1240033228</v>
+        <v>324716.5168713905</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>245508.4130251792</v>
+        <v>330596.5460254669</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>239148.7562582744</v>
+        <v>344901.8618097052</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>222509.4306797516</v>
+        <v>306977.8773719546</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>215200.2287942212</v>
+        <v>302772.6592361826</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>215453.6632038486</v>
+        <v>323106.0255342895</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>217064.9577263726</v>
+        <v>318347.5707309928</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>218261.1900159335</v>
+        <v>298285.6370041381</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>216212.6077882569</v>
+        <v>288870.2802328205</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>221218.6122878985</v>
+        <v>275826.6717003252</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>207633.8064707702</v>
+        <v>269348.2205182381</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>219628.0086911272</v>
+        <v>269232.8771050837</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>211412.8605793732</v>
+        <v>277905.2476876125</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>204983.7756825946</v>
+        <v>276735.1375541397</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>207407.7720459861</v>
+        <v>262339.5805530203</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>204099.6576054175</v>
+        <v>260509.2099622913</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>212567.8647791824</v>
+        <v>279804.7922541747</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>222278.3731889414</v>
+        <v>286359.4830400892</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>225525.9288363811</v>
+        <v>262386.726889823</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>226490.4124120581</v>
+        <v>273098.411091212</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>228084.8326250273</v>
+        <v>243886.6911637253</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>231323.894718846</v>
+        <v>236935.8349853066</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>231483.6821996388</v>
+        <v>241741.8647201709</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>225056.5471178634</v>
+        <v>255124.282881717</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>218020.167263384</v>
+        <v>242666.2191357651</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>219993.3280593679</v>
+        <v>234532.2447820582</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>227809.553377432</v>
+        <v>256639.1504146529</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>225768.8844842369</v>
+        <v>244034.6259800493</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>236077.4614960964</v>
+        <v>232941.3718314372</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>227573.0190301444</v>
+        <v>230699.3290346616</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>226309.1724180955</v>
+        <v>228294.4189083757</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>228777.7055595594</v>
+        <v>228782.3090819635</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>282735.3790439846</v>
+        <v>299194.2843739425</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>200824.7731139286</v>
+        <v>223569.2169806842</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>181969.0258220041</v>
+        <v>196696.5401283064</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>153834.82461289</v>
+        <v>173546.2128639329</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>154049.8815691705</v>
+        <v>170685.0977404663</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5280,7 +5280,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>152685.3805827759</v>
+        <v>168170.2728288969</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>148555.4853964525</v>
+        <v>174685.3313543679</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>150441.2365362428</v>
+        <v>185017.0378707039</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>153884.7723828231</v>
+        <v>195192.5994798774</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>134813.369402648</v>
+        <v>192834.241819536</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>133863.8529694883</v>
+        <v>184889.2310934257</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>132794.3192852314</v>
+        <v>182998.3275980908</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>133172.7644100157</v>
+        <v>192149.4487089573</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>133341.1654413692</v>
+        <v>194752.3180445829</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>130151.7560547873</v>
+        <v>183564.4691124832</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>135515.2294343096</v>
+        <v>180966.1255910226</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>136483.5782701911</v>
+        <v>174444.7810343843</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>137537.7063424049</v>
+        <v>174944.2475307214</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>134958.1003883239</v>
+        <v>183101.9891431422</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>130790.670386545</v>
+        <v>194955.1436340653</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>138539.8015823828</v>
+        <v>194825.2488572066</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>146558.0371627352</v>
+        <v>208415.6609032974</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>150825.4436123123</v>
+        <v>226008.0289217757</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>145937.3303324887</v>
+        <v>222597.2579208128</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>148125.2823055488</v>
+        <v>229694.8920099372</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>149396.1668449407</v>
+        <v>227896.6117472263</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>159021.9703447018</v>
+        <v>233863.4189532296</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>158064.9842414886</v>
+        <v>228192.6196560952</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>159629.6420755686</v>
+        <v>224182.124648638</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>161076.0840190444</v>
+        <v>239983.4399443869</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>157926.0129071464</v>
+        <v>236889.4656834605</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>173597.5581618729</v>
+        <v>211116.5048612172</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>191501.2120328347</v>
+        <v>238184.3333572599</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>203543.9885627413</v>
+        <v>219797.2524546756</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>200618.5264673417</v>
+        <v>220543.0365219595</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>205104.5920190872</v>
+        <v>227704.7259744136</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>206829.0169451103</v>
+        <v>223125.7865284571</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>205406.6230174212</v>
+        <v>229937.6971461075</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>203274.4642520486</v>
+        <v>239821.5961790577</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>205491.0291160631</v>
+        <v>230653.1102931876</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>200401.8881684095</v>
+        <v>219468.4488947481</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>205774.9399946142</v>
+        <v>225075.0965582484</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>194724.7771787386</v>
+        <v>213557.9295057544</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>186169.9440396346</v>
+        <v>211796.7055798424</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>194088.4193755407</v>
+        <v>223755.6527443746</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>212521.8028445111</v>
+        <v>217192.1792748862</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>225889.9195497225</v>
+        <v>221925.2799167189</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>212093.5080195572</v>
+        <v>220045.7593109455</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>219535.8262220261</v>
+        <v>214494.8837832854</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>230274.306183495</v>
+        <v>222585.2653779283</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>224870.0431189004</v>
+        <v>225101.5971492217</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>222703.2451969034</v>
+        <v>225632.3900361855</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>228466.7073152153</v>
+        <v>269628.641746019</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>215956.2204659976</v>
+        <v>276974.9151690049</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>201464.790842106</v>
+        <v>280984.5029842248</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>197291.7267530058</v>
+        <v>279595.4591031263</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>186898.8600676538</v>
+        <v>269355.2866756175</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>207152.0353376055</v>
+        <v>243483.7110837126</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>200629.3626196544</v>
+        <v>248369.612264767</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>198842.294665855</v>
+        <v>264094.4779641915</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>194415.5888087377</v>
+        <v>272588.2884685253</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>205184.0434905273</v>
+        <v>265548.0950998496</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>199748.3968039248</v>
+        <v>258971.6004455392</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>189822.0074150137</v>
+        <v>246247.2947357311</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>198926.3884565148</v>
+        <v>242620.9748000586</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>205633.8100934075</v>
+        <v>231581.2888343979</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>214739.2289978063</v>
+        <v>232001.3117498977</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>229929.4323476945</v>
+        <v>233296.0894858654</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>235730.8580051493</v>
+        <v>228978.6741054621</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>231397.4766754165</v>
+        <v>232027.6735732848</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>216584.8852273881</v>
+        <v>245908.3083563315</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>218310.5875935937</v>
+        <v>286773.9828770281</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>221958.7881646122</v>
+        <v>306531.8593042472</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>218781.5604601277</v>
+        <v>357290.5242225102</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>215610.8966097688</v>
+        <v>408993.311752046</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>212323.1377957756</v>
+        <v>392790.0139679426</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>210584.1564390483</v>
+        <v>378624.2832208095</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>203691.886533166</v>
+        <v>372211.5164660736</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>203038.9825029417</v>
+        <v>367811.0216993646</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>205120.0751928127</v>
+        <v>348239.6604646676</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>207007.964926868</v>
+        <v>330459.7683919433</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>201490.3789348921</v>
+        <v>322084.9072570138</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>205771.643163029</v>
+        <v>311433.6937534624</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>220240.8137122041</v>
+        <v>295141.8518877968</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>219509.6361229256</v>
+        <v>299303.1159502121</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>220160.3242449932</v>
+        <v>301171.2004403925</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>223222.7568583584</v>
+        <v>288794.9417106638</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>220870.8145918434</v>
+        <v>291172.1359944888</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>215301.6894691961</v>
+        <v>280798.5978368984</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>211782.9449449698</v>
+        <v>280340.434027012</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>209603.5419473721</v>
+        <v>295161.46494068</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>209374.5294721402</v>
+        <v>329811.4365606984</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>206800.6134422012</v>
+        <v>342638.1632771763</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>223537.1866724059</v>
+        <v>379225.1250193401</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>220520.2296811418</v>
+        <v>394982.5322880903</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>233873.0204323235</v>
+        <v>369262.8606175149</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>206828.7216749048</v>
+        <v>351084.4343406527</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>208589.641542495</v>
+        <v>361209.5685092196</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>215076.9340904133</v>
+        <v>403888.4236411856</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>220861.8438965403</v>
+        <v>448476.6140546942</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>228385.523622964</v>
+        <v>433858.5498480684</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>234266.7335608021</v>
+        <v>421384.0769216207</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>233197.633840826</v>
+        <v>402189.6567716426</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>232378.4321174715</v>
+        <v>416383.4071605555</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>237631.2887594455</v>
+        <v>434723.2037487841</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>235706.992058044</v>
+        <v>432670.7080080112</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>236876.9516092139</v>
+        <v>402834.3256145525</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>232566.2135258975</v>
+        <v>426095.9373019412</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>230170.3139170867</v>
+        <v>465702.4107302942</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>223699.6646292538</v>
+        <v>496381.7064474052</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>222927.1237569883</v>
+        <v>498583.4321216534</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>224176.385456726</v>
+        <v>479600.1148721647</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>225038.6436815112</v>
+        <v>476670.2719105531</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>229297.897807409</v>
+        <v>479109.5174519628</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>225973.7113300999</v>
+        <v>476669.7580901932</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>226238.7112759426</v>
+        <v>476338.3643003905</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>226914.5654740213</v>
+        <v>475440.4229364194</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>230540.0236383486</v>
+        <v>458152.3086700477</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>275451.6770873304</v>
+        <v>445702.0865499505</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>269192.6303336608</v>
+        <v>439006.7058317976</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>268858.9760672516</v>
+        <v>414153.0811284808</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>275574.0714228114</v>
+        <v>411305.2209181255</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>273081.3378721901</v>
+        <v>383573.3353307197</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>272757.3597694319</v>
+        <v>352738.5822628206</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>267130.5639216016</v>
+        <v>297676.9549314679</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>276797.3807531041</v>
+        <v>316680.8207056687</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>274973.2293684771</v>
+        <v>315861.3162455682</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>276154.551441593</v>
+        <v>315375.7077304968</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>272919.5388955267</v>
+        <v>320735.9923760163</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>279686.7198341776</v>
+        <v>311118.6737936995</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>272917.8683006989</v>
+        <v>320879.6898105317</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>271476.8875592814</v>
+        <v>331806.0073878138</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>273212.4447645036</v>
+        <v>336611.8587866257</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>269497.3646866789</v>
+        <v>343140.6336524903</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>271918.7772871315</v>
+        <v>338462.086827645</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>264437.7320212242</v>
+        <v>336812.5304911929</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>260229.0938957219</v>
+        <v>338291.6656093636</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>266610.7196667044</v>
+        <v>339275.0007850452</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>268119.0083075826</v>
+        <v>329503.5209044478</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>276490.6225993466</v>
+        <v>322779.8306335096</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>279600.116176934</v>
+        <v>316220.0869424868</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>271622.5107884862</v>
+        <v>312768.5198078002</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>273798.1173733067</v>
+        <v>331582.9920389528</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>281036.0791507302</v>
+        <v>343510.262053603</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>270460.9360947956</v>
+        <v>340701.5268494357</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>283150.0535424668</v>
+        <v>347391.4210300827</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>285959.2922288523</v>
+        <v>350455.8695513898</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>312610.1841828318</v>
+        <v>347732.0663569696</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>320155.8176865263</v>
+        <v>352383.4418910081</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>312005.3508282745</v>
+        <v>341246.2062607485</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>318238.3450770722</v>
+        <v>347799.5216879367</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>312776.4387188663</v>
+        <v>342621.2135987089</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>316277.0852940807</v>
+        <v>337934.7715889584</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>315507.2981080161</v>
+        <v>351358.7672405842</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>320289.6109593039</v>
+        <v>348493.7757729025</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>301336.438145824</v>
+        <v>316993.2313663887</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>298784.5843863445</v>
+        <v>327649.8042617515</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>279979.1360239085</v>
+        <v>315737.9385763999</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>276715.2624360067</v>
+        <v>322885.6747068594</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>284808.7789702426</v>
+        <v>321685.6119748512</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>280139.1238308896</v>
+        <v>319378.9781080869</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>281358.0905350375</v>
+        <v>333317.3322296487</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>277869.9101630876</v>
+        <v>321405.3100932912</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>275980.6990753768</v>
+        <v>310369.1695852281</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>291950.0559612057</v>
+        <v>322023.211689632</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>292833.4622108327</v>
+        <v>327080.6418657191</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>283614.6380103966</v>
+        <v>322151.630348993</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>289242.055947045</v>
+        <v>319181.4485591277</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>295017.3584445246</v>
+        <v>314873.9946678473</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>289689.9389661039</v>
+        <v>319426.9814857456</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>287482.9923208599</v>
+        <v>312557.5936242341</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>279730.6564380692</v>
+        <v>316686.2120696921</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>292116.5911738062</v>
+        <v>314196.6766577901</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>311758.7452112328</v>
+        <v>323104.6352278477</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>353954.8645420143</v>
+        <v>320275.4069995184</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>348362.2393304802</v>
+        <v>321141.0702439992</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>351024.5364897678</v>
+        <v>325406.0852675778</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>348479.9085533041</v>
+        <v>322599.4936657776</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>341402.1846972573</v>
+        <v>324929.1646990012</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>345170.5368280936</v>
+        <v>331596.2382958381</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>344223.5759428677</v>
+        <v>329664.8245812149</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>335947.3343337719</v>
+        <v>324715.3596310997</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>341958.9467096982</v>
+        <v>342948.9644065374</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>282809.8091595534</v>
+        <v>266568.368437595</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>288787.7362196211</v>
+        <v>262538.8584479731</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>286619.3750444751</v>
+        <v>260567.1402927281</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>288681.7095176276</v>
+        <v>259240.258167589</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>300850.9465927199</v>
+        <v>259741.8252630169</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>289758.9581234668</v>
+        <v>270312.6808595213</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>285332.3743150659</v>
+        <v>279739.9280961161</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>285827.7209851347</v>
+        <v>309982.7055727112</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>284677.6234666579</v>
+        <v>351345.3321079238</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>284950.6477852403</v>
+        <v>351749.8066262344</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>294561.2785800799</v>
+        <v>341525.3916177118</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>292308.8922682769</v>
+        <v>327683.9780180482</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>285160.79020952</v>
+        <v>349147.7615043552</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>293783.2084288046</v>
+        <v>362307.7499554694</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>302928.511136428</v>
+        <v>358351.1978916723</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>302790.1888459298</v>
+        <v>345975.8174108489</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>312799.5134220243</v>
+        <v>379336.3895531177</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>307339.4914101994</v>
+        <v>390531.3401216354</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>303111.6490530536</v>
+        <v>391786.7127671845</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>300490.3197593937</v>
+        <v>380845.3964441728</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>303562.0304946323</v>
+        <v>369010.0251665763</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>298980.8404978121</v>
+        <v>363935.6027428077</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>298211.5144641299</v>
+        <v>350852.0869690694</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>311776.8757154699</v>
+        <v>303947.4357197731</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>305421.6095340655</v>
+        <v>310327.4289485001</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>303929.1592312371</v>
+        <v>336131.2473626409</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>307401.6181326288</v>
+        <v>351249.7490249579</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>302032.3881921183</v>
+        <v>389134.5968206947</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>317346.9457825545</v>
+        <v>417484.5816569781</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>332867.2794180448</v>
+        <v>452877.0885850828</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>317740.4571171675</v>
+        <v>456847.7897575275</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>286649.6628626969</v>
+        <v>456580.0205978623</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>280348.5257645993</v>
+        <v>453484.9659064075</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>275401.4055969071</v>
+        <v>444739.1474978437</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>279606.2058638489</v>
+        <v>433040.7568148521</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>261665.1282768102</v>
+        <v>426293.282337275</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>257444.107205453</v>
+        <v>432781.153103057</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>263252.5907107951</v>
+        <v>426607.708673247</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>279702.1953949686</v>
+        <v>466573.3529776307</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>298087.4373160063</v>
+        <v>481950.5246249845</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>310641.2583185316</v>
+        <v>487144.7567121973</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>313181.7862006245</v>
+        <v>489501.9335547566</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>313301.3733097003</v>
+        <v>479329.6616616734</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>310322.7664756901</v>
+        <v>467254.2727616786</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>309118.591385371</v>
+        <v>460328.2502865788</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>299530.7674922379</v>
+        <v>427862.7279185881</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>295072.6810787093</v>
+        <v>421261.3317833241</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>290101.9115188957</v>
+        <v>432207.1714503053</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>283408.3832709736</v>
+        <v>429264.0933327306</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>278868.2910296987</v>
+        <v>404527.3798098141</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>283766.1861370113</v>
+        <v>404301.6940132303</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>295040.4147134978</v>
+        <v>386859.8248005821</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>321712.868315978</v>
+        <v>408447.4601852566</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>306008.3765226523</v>
+        <v>389689.8403146017</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>306776.3880062706</v>
+        <v>387680.0324314148</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>309644.5716185746</v>
+        <v>394668.1544075866</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>321407.5866417368</v>
+        <v>398390.1527750953</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>313817.0822344249</v>
+        <v>406155.9591237189</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>326488.9667442829</v>
+        <v>402952.3279765829</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>340402.4721726223</v>
+        <v>388829.1504616782</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>224159.8897172936</v>
+        <v>207624.5706423034</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>223319.2853597808</v>
+        <v>203850.587330197</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>220977.7242903483</v>
+        <v>217377.367359856</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>214183.0126428625</v>
+        <v>243146.8891181049</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>210818.1183779258</v>
+        <v>278649.6163588058</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>208049.1815165564</v>
+        <v>318305.3813310214</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>204498.6988283954</v>
+        <v>412928.7384913174</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>203823.5729871214</v>
+        <v>505170.1517829416</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>205909.359463706</v>
+        <v>502750.7940195001</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>215899.7565143853</v>
+        <v>520602.9274993158</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>229049.2363767601</v>
+        <v>508846.1120892155</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>237010.5511385104</v>
+        <v>529783.1140669057</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>246748.303080852</v>
+        <v>492913.4480640054</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>252633.3270677816</v>
+        <v>485441.4639307359</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>261997.8107174169</v>
+        <v>434401.0212722595</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>273868.403049581</v>
+        <v>415471.1948803607</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>287192.7286512507</v>
+        <v>348423.7495204531</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>297676.524562758</v>
+        <v>335829.2310617364</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>307504.7115136848</v>
+        <v>291585.4281298821</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>317120.8259661499</v>
+        <v>392509.6960375496</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>480619.378445859</v>
+        <v>377081.3588793448</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>548109.1449058612</v>
+        <v>412442.3177182095</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>554505.0842720611</v>
+        <v>402956.5145581368</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>541865.2080664136</v>
+        <v>424416.787617034</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>539523.8606482936</v>
+        <v>397083.807701166</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>506188.2513024161</v>
+        <v>441593.107804717</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>486509.807896268</v>
+        <v>462835.2660506991</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>459245.051677631</v>
+        <v>521194.7930765731</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>482759.3465408433</v>
+        <v>543716.0697136171</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>505126.4568757551</v>
+        <v>548823.8093332498</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>538932.8671940711</v>
+        <v>550914.0666128971</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>547714.8190474133</v>
+        <v>571236.9429755767</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>558806.4755820287</v>
+        <v>569694.9496290502</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>555531.685422391</v>
+        <v>568400.4690447114</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>561161.6014033791</v>
+        <v>565605.3201832362</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>561359.8072060844</v>
+        <v>561941.2811796005</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>561614.6404832649</v>
+        <v>558895.5471432091</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>561506.819388313</v>
+        <v>557808.2174776206</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>561677.5986666138</v>
+        <v>557322.9114897419</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>560839.4482389538</v>
+        <v>538434.843052596</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>557970.7217945692</v>
+        <v>544699.5168413604</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>562128.1530679076</v>
+        <v>548897.5294393443</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>561766.0992832298</v>
+        <v>545206.6173391858</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>544634.0932297116</v>
+        <v>535104.6368322846</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>562173.2122369672</v>
+        <v>531529.6005009841</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>564808.6014394612</v>
+        <v>513038.9474341905</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>559086.005536541</v>
+        <v>518489.7551736283</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>562547.8565842793</v>
+        <v>514008.6022486394</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>562754.569714575</v>
+        <v>513072.6863910525</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>565696.4048361673</v>
+        <v>515533.6675453362</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>564507.448594276</v>
+        <v>510188.5053669019</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>566386.2742462785</v>
+        <v>486647.2331450084</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>563576.6867420842</v>
+        <v>474423.1916418515</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>565334.086099396</v>
+        <v>444648.741663573</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>562012.6257392712</v>
+        <v>458061.3830153706</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>563873.3371721741</v>
+        <v>466041.0010499453</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>541104.4163730642</v>
+        <v>430707.9413584978</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>536058.0247777504</v>
+        <v>431981.9874180512</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>539369.0396553436</v>
+        <v>419081.4461601925</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>536448.085924824</v>
+        <v>420434.300606315</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>517221.9091146546</v>
+        <v>437101.8949032953</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>500202.9015413838</v>
+        <v>396211.8410532725</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>524057.2061722152</v>
+        <v>437738.4398314027</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>514575.622996326</v>
+        <v>415189.6837665332</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>491816.8570307472</v>
+        <v>419559.2339898872</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>478220.5645874899</v>
+        <v>404211.4436628168</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>474361.393183742</v>
+        <v>382070.9727289745</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>479159.9743596991</v>
+        <v>372425.727533847</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>466884.2280969014</v>
+        <v>382777.5883883247</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>482818.68259177</v>
+        <v>373271.4917822028</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>488677.6222581192</v>
+        <v>364177.7558480432</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>459812.4703193724</v>
+        <v>351280.4759275599</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>446271.4759714839</v>
+        <v>341313.3763530491</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>436419.3665035894</v>
+        <v>330615.8965860599</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>438240.158023136</v>
+        <v>332343.4982199959</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>420254.4613017139</v>
+        <v>335157.8178775621</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>419679.8218749</v>
+        <v>337859.6282645673</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>397411.7800433743</v>
+        <v>331802.9748058708</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>387013.0574089126</v>
+        <v>309393.1457665331</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>379761.6772792305</v>
+        <v>296900.4444382723</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>381621.3669127926</v>
+        <v>292115.747705219</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>367770.9128836702</v>
+        <v>301778.3546874983</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>357640.3313556162</v>
+        <v>277280.3404458707</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>354952.8821349504</v>
+        <v>269138.2134064239</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>361868.9735839962</v>
+        <v>259543.7549194341</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>322760.263646122</v>
+        <v>252485.5396301728</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>332528.003690697</v>
+        <v>248451.9549485683</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>327908.634812469</v>
+        <v>311830.2653218065</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>308912.6135368369</v>
+        <v>295461.0002052736</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>319118.3042638844</v>
+        <v>287974.4281644223</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>332530.7171408707</v>
+        <v>278240.6453897883</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>364165.1782439445</v>
+        <v>278889.0392864027</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>351626.2051576579</v>
+        <v>281484.4695351045</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>287378.0145086237</v>
+        <v>269953.8805370181</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>277659.0957946743</v>
+        <v>261109.0439916537</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>264078.8418743899</v>
+        <v>255556.5037515556</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>278188.9489374782</v>
+        <v>259590.5032467444</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>273547.8927127096</v>
+        <v>247059.818683485</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>263342.7165075658</v>
+        <v>257173.6960542838</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>244757.1002452229</v>
+        <v>251179.9426756768</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>246376.3229015564</v>
+        <v>248522.0385187868</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>254745.5867082867</v>
+        <v>250199.5213259713</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>276673.8559642474</v>
+        <v>242216.7211323233</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>250540.332725823</v>
+        <v>229549.1759592841</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>269292.6093965867</v>
+        <v>218354.2526754632</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>242058.3156746794</v>
+        <v>221619.8462180737</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>243307.8145963543</v>
+        <v>228027.1071297591</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>247930.5933721773</v>
+        <v>231775.3804624952</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>244058.8988987572</v>
+        <v>241999.9127443054</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>240761.1724377249</v>
+        <v>235893.8486418878</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>240264.9728684445</v>
+        <v>240518.4786584661</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>251321.3060320582</v>
+        <v>241026.3582192802</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>245981.200905343</v>
+        <v>225707.2234446859</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>289594.3355276008</v>
+        <v>233600.8942443512</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8096,7 +8096,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>282280.0237275901</v>
+        <v>219378.089691524</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>275820.0761082784</v>
+        <v>227334.3325683571</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>267657.3349599147</v>
+        <v>228368.3932196985</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>265113.3801304013</v>
+        <v>229290.3726033806</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>293306.5681376772</v>
+        <v>236652.3411913065</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>283117.6288264341</v>
+        <v>241439.0641190522</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>289929.3857748341</v>
+        <v>239744.1971389416</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>286530.4782614123</v>
+        <v>227568.0679859004</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>328335.5000411198</v>
+        <v>285875.7884696994</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>273432.4663779893</v>
+        <v>215942.4382478454</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>236772.8293711793</v>
+        <v>210366.6144074514</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>204738.7648993301</v>
+        <v>201578.0678410956</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>217372.8054917154</v>
+        <v>196592.1001723733</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>211370.5549902093</v>
+        <v>183604.6216480078</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>205165.0721365332</v>
+        <v>172699.1533372972</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>212120.7889005642</v>
+        <v>179443.9178584293</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>205967.4498606315</v>
+        <v>180346.806849657</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>199295.8095019815</v>
+        <v>183814.2986191167</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>192786.3897262544</v>
+        <v>181390.8355077593</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>195479.5454147897</v>
+        <v>176112.2495099538</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>187811.8206922446</v>
+        <v>179796.7558394979</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>179646.9500485062</v>
+        <v>178662.5102834257</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>182892.5226477046</v>
+        <v>164802.4267355592</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>190002.1113402252</v>
+        <v>182122.0556474139</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>190410.1718582462</v>
+        <v>178942.4584830039</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>194374.0784247998</v>
+        <v>185672.1352505897</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>217957.9825410965</v>
+        <v>178253.7738675023</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>230252.9783596031</v>
+        <v>175624.7213158634</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>214456.0693908684</v>
+        <v>185221.6880475129</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>224604.4500569761</v>
+        <v>197300.6724211244</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>227102.3814006664</v>
+        <v>183732.5154600625</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>236035.3342242586</v>
+        <v>192500.8943545067</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8352,7 +8352,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>222329.2038139816</v>
+        <v>207429.2096858927</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>223705.0033617532</v>
+        <v>197870.2447169237</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>245061.6928498686</v>
+        <v>197383.7984290247</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>242789.1317099661</v>
+        <v>197565.1271152926</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" t="n">
-        <v>229712.4987054279</v>
+        <v>186992.2460206031</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" t="n">
-        <v>220476.3908929294</v>
+        <v>178868.3868629873</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8400,7 +8400,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="n">
-        <v>229972.6501121707</v>
+        <v>190944.5699367867</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="n">
-        <v>255446.3891893038</v>
+        <v>204125.6879405523</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>1004</v>
       </c>
       <c r="B1006" t="n">
-        <v>288048.128796525</v>
+        <v>218821.6194228086</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>1005</v>
       </c>
       <c r="B1007" t="n">
-        <v>272916.4683808356</v>
+        <v>223538.4531199601</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>1006</v>
       </c>
       <c r="B1008" t="n">
-        <v>264409.5961081838</v>
+        <v>228250.124415003</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>1007</v>
       </c>
       <c r="B1009" t="n">
-        <v>261076.0944840301</v>
+        <v>213673.3143074439</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" t="n">
-        <v>254708.0921657953</v>
+        <v>218046.1634519039</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" t="n">
-        <v>253888.8797638503</v>
+        <v>204387.2656661816</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" t="n">
-        <v>257152.1908049917</v>
+        <v>213834.4683219664</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" t="n">
-        <v>259360.0593441916</v>
+        <v>218635.7209313127</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" t="n">
-        <v>262792.7569806096</v>
+        <v>223398.0542591911</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" t="n">
-        <v>266475.8091342</v>
+        <v>217073.4544876011</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" t="n">
-        <v>272370.8526753142</v>
+        <v>208028.6770986324</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" t="n">
-        <v>258859.0940929455</v>
+        <v>209854.8058873615</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="n">
-        <v>250410.5892276286</v>
+        <v>208779.5326440984</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" t="n">
-        <v>245558.8730184237</v>
+        <v>213236.5254133989</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" t="n">
-        <v>251273.6011293311</v>
+        <v>201288.3444752885</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" t="n">
-        <v>251700.4493558237</v>
+        <v>202394.7961128775</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="n">
-        <v>246938.1667987629</v>
+        <v>204488.5240799457</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="n">
-        <v>243434.5633730324</v>
+        <v>205012.8076165388</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="n">
-        <v>240490.674234178</v>
+        <v>216876.0680734104</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="n">
-        <v>237160.6724827874</v>
+        <v>212615.0062244756</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" t="n">
-        <v>238351.4818445505</v>
+        <v>221874.0030450802</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" t="n">
-        <v>235669.9709358289</v>
+        <v>220885.211472967</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>1026</v>
       </c>
       <c r="B1028" t="n">
-        <v>232840.6994848028</v>
+        <v>232801.6777571964</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="n">
-        <v>230773.4902310001</v>
+        <v>231370.0264794854</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="n">
-        <v>232925.5589607545</v>
+        <v>228805.6803448123</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>1029</v>
       </c>
       <c r="B1031" t="n">
-        <v>225192.0121488216</v>
+        <v>227107.4902169838</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="n">
-        <v>226342.9318320221</v>
+        <v>245477.2667433507</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="n">
-        <v>225977.5690653113</v>
+        <v>238355.7952940399</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="n">
-        <v>223126.7347179771</v>
+        <v>224098.1433406103</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="n">
-        <v>223765.3549511669</v>
+        <v>232266.484412008</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>1034</v>
       </c>
       <c r="B1036" t="n">
-        <v>228795.7135449836</v>
+        <v>229908.3618121876</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="n">
-        <v>221514.8152441383</v>
+        <v>213404.0485309901</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="n">
-        <v>237221.9230590214</v>
+        <v>198002.800469992</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>1037</v>
       </c>
       <c r="B1039" t="n">
-        <v>230277.6648856861</v>
+        <v>196832.7008976974</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>1038</v>
       </c>
       <c r="B1040" t="n">
-        <v>234652.3466296986</v>
+        <v>201705.5727751346</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>1039</v>
       </c>
       <c r="B1041" t="n">
-        <v>232422.9438671515</v>
+        <v>211866.8032241472</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>1040</v>
       </c>
       <c r="B1042" t="n">
-        <v>216227.9976707073</v>
+        <v>201403.6516046686</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" t="n">
-        <v>216639.0258191322</v>
+        <v>199676.5745444963</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>1042</v>
       </c>
       <c r="B1044" t="n">
-        <v>216036.6052587473</v>
+        <v>198808.4187242926</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>1043</v>
       </c>
       <c r="B1045" t="n">
-        <v>232410.1713695701</v>
+        <v>196337.9583061155</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>1044</v>
       </c>
       <c r="B1046" t="n">
-        <v>225914.3960926477</v>
+        <v>195636.544856003</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>1045</v>
       </c>
       <c r="B1047" t="n">
-        <v>223397.4980652911</v>
+        <v>207534.3216014709</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>1046</v>
       </c>
       <c r="B1048" t="n">
-        <v>211874.0191245168</v>
+        <v>217278.9753011325</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="n">
-        <v>209452.3646963444</v>
+        <v>221533.8186594796</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>1048</v>
       </c>
       <c r="B1050" t="n">
-        <v>201762.604934565</v>
+        <v>259715.3201388427</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="n">
-        <v>198435.6374573559</v>
+        <v>246237.2454196757</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>1050</v>
       </c>
       <c r="B1052" t="n">
-        <v>203127.1151129947</v>
+        <v>254561.9285876334</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="n">
-        <v>199976.8962145473</v>
+        <v>239690.2312724513</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="n">
-        <v>201037.9632792762</v>
+        <v>235746.4815005889</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>1053</v>
       </c>
       <c r="B1055" t="n">
-        <v>199317.4436132228</v>
+        <v>220278.0589628955</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="n">
-        <v>201053.6431711907</v>
+        <v>233165.064745553</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>1055</v>
       </c>
       <c r="B1057" t="n">
-        <v>195420.7092156826</v>
+        <v>237374.8652484643</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>1056</v>
       </c>
       <c r="B1058" t="n">
-        <v>203688.48629066</v>
+        <v>225539.7609597379</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="n">
-        <v>219894.7859964165</v>
+        <v>223296.5999961248</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="n">
-        <v>249627.7384870344</v>
+        <v>217879.5695282947</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="n">
-        <v>248586.860140933</v>
+        <v>227567.2946893035</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="n">
-        <v>254507.4763885828</v>
+        <v>219729.2905620168</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>1061</v>
       </c>
       <c r="B1063" t="n">
-        <v>243330.0628736776</v>
+        <v>224652.9300294952</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>1062</v>
       </c>
       <c r="B1064" t="n">
-        <v>227290.070870134</v>
+        <v>220521.6787990232</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>1063</v>
       </c>
       <c r="B1065" t="n">
-        <v>233727.80932693</v>
+        <v>227041.491300146</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>1064</v>
       </c>
       <c r="B1066" t="n">
-        <v>271618.9400498861</v>
+        <v>251859.702932278</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>1065</v>
       </c>
       <c r="B1067" t="n">
-        <v>341778.3961997873</v>
+        <v>324051.1474019902</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>1066</v>
       </c>
       <c r="B1068" t="n">
-        <v>353913.062843325</v>
+        <v>331317.6848977186</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>1067</v>
       </c>
       <c r="B1069" t="n">
-        <v>336722.1847708256</v>
+        <v>334440.7097677971</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>1068</v>
       </c>
       <c r="B1070" t="n">
-        <v>327459.3956864508</v>
+        <v>335158.871656104</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>1069</v>
       </c>
       <c r="B1071" t="n">
-        <v>320342.8088091885</v>
+        <v>340662.5345715559</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="n">
-        <v>305081.6433440046</v>
+        <v>325245.6007137025</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>1071</v>
       </c>
       <c r="B1073" t="n">
-        <v>289213.6646229487</v>
+        <v>337737.4779338324</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>1072</v>
       </c>
       <c r="B1074" t="n">
-        <v>294685.3604574571</v>
+        <v>329080.8577654898</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>1073</v>
       </c>
       <c r="B1075" t="n">
-        <v>289802.2614122555</v>
+        <v>327691.2326760598</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>1074</v>
       </c>
       <c r="B1076" t="n">
-        <v>288334.8064759069</v>
+        <v>326735.451041787</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>1075</v>
       </c>
       <c r="B1077" t="n">
-        <v>292191.1495046371</v>
+        <v>334269.6209846889</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="n">
-        <v>332925.5118048518</v>
+        <v>358662.5930796076</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>1077</v>
       </c>
       <c r="B1079" t="n">
-        <v>280088.4133007915</v>
+        <v>394783.3243263823</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>1078</v>
       </c>
       <c r="B1080" t="n">
-        <v>283003.1042755601</v>
+        <v>404810.7748210399</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>1079</v>
       </c>
       <c r="B1081" t="n">
-        <v>289589.5168985563</v>
+        <v>394631.3759235429</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="n">
-        <v>300804.5986064196</v>
+        <v>385145.6883402014</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>1081</v>
       </c>
       <c r="B1083" t="n">
-        <v>286344.8035122038</v>
+        <v>380638.6456658884</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>1082</v>
       </c>
       <c r="B1084" t="n">
-        <v>286427.0563574689</v>
+        <v>385115.0578349599</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>1083</v>
       </c>
       <c r="B1085" t="n">
-        <v>289265.8725522083</v>
+        <v>396195.8268060758</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>1084</v>
       </c>
       <c r="B1086" t="n">
-        <v>302856.0031162532</v>
+        <v>405493.6729045616</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>1085</v>
       </c>
       <c r="B1087" t="n">
-        <v>367860.6103647378</v>
+        <v>399664.1077426836</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>1086</v>
       </c>
       <c r="B1088" t="n">
-        <v>411880.6546061706</v>
+        <v>381029.0266881453</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>1087</v>
       </c>
       <c r="B1089" t="n">
-        <v>453386.7299106329</v>
+        <v>368930.6621364495</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>1088</v>
       </c>
       <c r="B1090" t="n">
-        <v>509133.231212275</v>
+        <v>352669.3135702646</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>1089</v>
       </c>
       <c r="B1091" t="n">
-        <v>508103.1024631267</v>
+        <v>354226.9298705935</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="n">
-        <v>473291.8918104041</v>
+        <v>337288.5461974671</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>1091</v>
       </c>
       <c r="B1093" t="n">
-        <v>442646.9070207048</v>
+        <v>338721.000082622</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>1092</v>
       </c>
       <c r="B1094" t="n">
-        <v>420419.4140636738</v>
+        <v>332868.9407737083</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="n">
-        <v>401338.9913238779</v>
+        <v>332637.6337485551</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>1094</v>
       </c>
       <c r="B1096" t="n">
-        <v>389747.0204907395</v>
+        <v>321838.5158424539</v>
       </c>
     </row>
   </sheetData>
